--- a/data/unique_lande_all_isin.xlsx
+++ b/data/unique_lande_all_isin.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gravercentret-my.sharepoint.com/personal/anja_gravercentret_dk/Documents/Dokumenter/Python_projekter/kommune_investering/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_128580F1CB534F1FF52C4C81452D34537978C656" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F433715-F2AD-45F6-B40C-1BAF7FFF7BEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="188">
   <si>
     <t>Land oversat</t>
   </si>
@@ -43,9 +37,6 @@
     <t>Kommuner</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -118,7 +106,7 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>Trinidad And Tobago</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Tunisia</t>
@@ -142,9 +130,6 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>Amerikansk</t>
-  </si>
-  <si>
     <t>Cameroun; Cameroon</t>
   </si>
   <si>
@@ -181,10 +166,7 @@
     <t>Venezuela; Venezuela, RB</t>
   </si>
   <si>
-    <t>US00253XAB73; US023765AA88; US02376RAE27; US023771T329; US02377LAA26; US02401LAA26; US024747AF43; US024747AG26; US026874DA29; US03027XAJ90; US03027XAX84; US03027XBJ81; US03027XBK54; US03040WAW55; US03040WAX39; XS2111940818; XS2227905903; XS2346207892; XS2393701284; XS2608242108; XS2622275886; XS2622275969; XS2772266420; XS2772266693; XS2779901482; XS2830466137; XS2830466301</t>
-  </si>
-  <si>
-    <t>XS1318576086; XS1819680288; XS1819680528; XS2083302419; XS2083302500; XS2446175577</t>
+    <t>XS1819680288; XS1819680528; XS2083302419; XS2083302500; XS2446175577</t>
   </si>
   <si>
     <t>XS1319820897; XS1678623734</t>
@@ -205,7 +187,7 @@
     <t>CND10001RRB3; CND10004TCP5; CND10004TM71; CND10006GPT1; HK0000116415; HK0000317732; HK0000867637; US55300RAG65; US80007RAL96; XS2227351900</t>
   </si>
   <si>
-    <t>XS1558078496; XS1775617464; XS1807305328; XS1953057061; XS1953057491; XS1980065301; XS1980255936; XS2053566068; XS2079842642; XS2176899701; XS2241075014; XS2297220423; XS2297221405; XS2297226545; XS2343007170; XS2391395154; XS2391398174; XS2530049837</t>
+    <t>XS1558078496; XS1775617464; XS1807305328; XS1953057061; XS1953057491; XS1980065301; XS1980255936; XS2079842642; XS2176899701; XS2241075014; XS2297220423; XS2297221405; XS2297226545; XS2391395154; XS2391398174; XS2530049837</t>
   </si>
   <si>
     <t>XS1151974877</t>
@@ -232,7 +214,7 @@
     <t>XS1717011982; XS1717013095; XS1777972941; XS1910826996; XS1910827887; XS1910828182; XS2337067792; XS2384701020; XS2384704800; XS2445169985</t>
   </si>
   <si>
-    <t>NO0011134405; RO1631DBN055; RO3B41D8EX14; RO4KELYFLVK4; RO7P95F9FNY6; ROGSHSTVFMX2; ROO7A2H5YIN8; US77586TAE64; XS1313004928; XS1405777589; XS1575967218; XS1575968026; XS1750113661; XS1750114396; XS1768074319; XS1837994794; XS1944412664; XS1944412748; XS1968706876; XS1970549561; XS2027596530; XS2109812508; XS2109813142; XS2178857954; XS2201851172; XS2201851685; XS2234859101; XS2248458395; XS2258400162; XS2262211076; XS2288906857; XS2310799809; XS2330503694; XS2330514899; XS2351310482; XS2364199757; XS2364200514; XS2434895558; XS2434895806; XS2434896010; XS2485249523; XS2571922884; XS2571923007; XS2571924070; XS2689095086; XS2689948078; XS2689949399; XS2756521212; XS2756521303; XS2770921315</t>
+    <t>XS1405777589; XS1575967218; XS1575968026; XS1750113661; XS1750114396; XS1944412664; XS1944412748; XS2234859101; XS2248458395; XS2288906857; XS2310799809; XS2351310482; XS2689095086</t>
   </si>
   <si>
     <t>XS1056560920; XS1729875598; XS2322319398; XS2322319638; XS2322321964; XS2348591707; XS2419405274</t>
@@ -256,7 +238,7 @@
     <t>USP93960AH80; USP93960AJ47; USP93960AK10</t>
   </si>
   <si>
-    <t>XS1175223699; XS2023698553</t>
+    <t>XS1175223699</t>
   </si>
   <si>
     <t>US900123BJ84; US900123CB40; US900123CK49; US900123CM05; US900123DD96; US900123DH01; XS2477752260; XS2790222116</t>
@@ -277,9 +259,6 @@
     <t>XS0828779594; XS1056386714; XS1267081575</t>
   </si>
   <si>
-    <t>Lægernes Pension: Skat</t>
-  </si>
-  <si>
     <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse</t>
   </si>
   <si>
@@ -313,9 +292,6 @@
     <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner, dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
   </si>
   <si>
-    <t>Akademiker Pension: nan; Danske Bank: Country Exclusions; Lægernes Pension: Dårlig regeringsførelse</t>
-  </si>
-  <si>
     <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
   </si>
   <si>
@@ -340,10 +316,7 @@
     <t>Lægernes Pension: Dårlig regeringsførelse</t>
   </si>
   <si>
-    <t>['5,75 American Airli 20-04-2029', nan, 'USA', 'AMERICAN AIRLINES 2016-2 PASS THROUGH TRUSTS', 'AMERICAN AIRLINES 2019-1 PASS THROUGH TRUST', 'AMERICAN ASSETS TRUST LP', '4 American Builders 15-01-2028', 'American Builders &amp; Contractors Supply Co Inc', 'AMERICAN INTERNATIONAL GROUP INC', 'AMERICAN TOWER CORP', 'AMERICAN WATER CAPITAL CORP', 'INTER-AMERICAN DEVELOPMENT BANK', 'American Tower Corp', 'AMERICAN TOWER CORP  ', 'AMERICAN MEDICAL SYSTEMS EUROPE', 'American Medical Systems Europe BV', 'AMERICAN MEDICAL SYST EU  ', 'Holland', 'Anglo American Capital PLC 15.03.2032']</t>
-  </si>
-  <si>
-    <t>['9.50% Angolan Government International Bond 2025', 'Angolan Government International Bond', 'Republic of Angola', '8.25% Angolan Government International Bond 2028', 'Angola', 'REPUBLIC OF ANGOLA  ', '8.75% Angolan Government International Bond 2032']</t>
+    <t>['Republic of Angola', 'Angola', 'Angolan Government International Bond', 'REPUBLIC OF ANGOLA  ']</t>
   </si>
   <si>
     <t>['Azerbaijan', 'Republic of Azerbaijan', 'REPUBLIC OF AZERBAIJAN  ']</t>
@@ -391,7 +364,7 @@
     <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
   </si>
   <si>
-    <t>[nan, 'Romania Government Bond', 'Rumænien', 'Romania', 'ROMANIA (GOVERNMENT)', 'Romanian Gov.Int. Bond 29.10.2035', 'Romanian Gov.Int. Obligation 29.10.2035', 'Sultanate of Oman', '5.38% Oman Government International Bond 2027', 'Oman Government International Bond', 'Oman', 'OMAN GOV INTERNTL BOND  ', '5.63% Oman Government International Bond 2028', 'Oman Government International Bond 17.01.2048', 'Oman Government International Obligation 17.01.2048', 'ROMANIA  ', 'Romanian Government International Bond', 'Oman Government International Bond 01.02.2025', 'Oman Government International Obligation 01.02.2025', '6.00% Oman Government International Bond 2029', '4.63% Romanian Government International Bond 2049', 'Romanian Government International Bond 03.04.2034', 'Romanian Government International Obligation 03.04.2034', '3.00% Romanian Government International Bond 2031', '4.00% Romanian Government International Bond 2051', '6.75% Oman Government International Bond 2027', 'OMAN SOVEREIGN SUKUK  ', 'Oman Sovereign Sukuk Co', '3.63% Romanian Government International Bond 2032', 'Romanian Government International Bond 25.05.2034', 'Romanian Government International Obligation 25.05.2034', '6.63% Romanian Government International Bond 2028', 'Romania 28', '7.13% Romanian Government International Bond 2033', '5.88% Romanian Government International Bond 2029', '6.38% Romanian Government International Bond 2034']</t>
+    <t>['Sultanate of Oman', '5.38% Oman Government International Bond 2027', 'Oman Government International Bond', 'Oman', 'OMAN GOV INTERNTL BOND  ', '5.63% Oman Government International Bond 2028', 'Oman Government International Bond 17.01.2048', 'Oman Government International Obligation 17.01.2048', 'Oman Government International Bond 01.02.2025', 'Oman Government International Obligation 01.02.2025', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OMAN SOVEREIGN SUKUK  ', 'Oman Sovereign Sukuk Co']</t>
   </si>
   <si>
     <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN  ', 'Pakistan', 'Pakistan Government International Bond', 'Islamic Republic of Pakistan', 'PAKISTAN WATER &amp; POWER  ', 'Pakistan Water &amp; Power Development Authority']</t>
@@ -400,7 +373,7 @@
     <t>['Panama', 'Panama Notas del Tesoro', 'PANAMA NOTAS DEL TESORO  ', 'Republic of Panama', '8.88% Panama Government International Bond 2027', 'Panama Government International Bond', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA  ', '4.50% Panama Government International Bond 2050', '4.50% Panama Government International Bond 2056', '2.25% Panama Government International Bond 2032', '4.50% Panama Government International Bond 2063', 'Banco Nacional de Panama', 'BANCO NACIONAL DE PANAMA  ']</t>
   </si>
   <si>
-    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QatarEnergy', 'QATAR ENERGY  ']</t>
+    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QATAR ENERGY  ', 'QatarEnergy']</t>
   </si>
   <si>
     <t>['Republic of Rwanda', '5.50% Rwanda International Government Bond 2031', 'Rwanda International Government Bond', 'REPUBLIC OF RWANDA  ', 'Rwanda']</t>
@@ -415,7 +388,7 @@
     <t>['Trinidad And Tobago']</t>
   </si>
   <si>
-    <t>[nan, 'Tunisia', 'Tunisian Republic', 'TUNISIAN REPUBLIC  ', '6.38% Tunisian Republic 2026']</t>
+    <t>['Tunisia']</t>
   </si>
   <si>
     <t>['Republic of Turkiye/The', 'Turkey 16.04.2043', 'Turkey Government International Bond 14.03.2029', 'Turkey Government International Obligation 14.03.2029', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR Turkey Enerji AS via Steas Funding 1 DAC']</t>
@@ -436,10 +409,7 @@
     <t>['5.38% Zambia Government International Bond 2022', 'Zambia Government International Bond', 'Republic of Zambia', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
   </si>
   <si>
-    <t>['5,75 American Airli 20-04-2029', 'AMERICAN AIRLINES/AADVAN 5.75% 20.04.2029', 'American Airlines 2016-2 Pass Through Trusts 3.2% 20291215', 'AMERICAN AIRLINES GROUP 3.75% 01.03.2025', 'AMERICAN AIRLINES INC 7.25% 15.02.2028', 'American Airlines 2019-1 Pass Through Trust 3.15% 20330815', 'American Assets Trust Lp 3.375% 20310201', '4 American Builders 15-01-2028', 'ABC SUPPLY CO INC 3.875% 15.11.2029', 'American International Group, Inc. 4.5% 20440716', 'American Tower Corporation 4.4% 20260215', 'American Tower Corporation 2.75% 20270115', 'American Tower Corporation 1.5% 20280131', 'American Tower Corporation 2.95% 20510115', 'American Water Capital Corp. 2.8% 20300501', 'American Water Capital Corp. 3.45% 20500501', 'Inter-American Development Bank 3.05% 20250207', 'AMERICAN TOWER CORP 0.5% 15.01.2028', 'AMERICAN TOWER CORP 0.875% 21.05.2029', '0.40% American Tower Corp 2027', 'INTER-AMERICAN DEVEL BK 7% 17.04.2033', '4,125 AMT 16-05-2027', '4,625 AMT 16-05-2031', '4.63% American Tower Corp 2031', 'AMERICAN TOWER CORP 4.625% 16.05.2031', '3.38% American Medical Systems Europe BV 2029', '3.50% American Medical Systems Europe BV 2032', 'AMERICAN MEDICAL SYST EU 3.5% 08.03.2032', 'AALLN 4 1/8 03/15/32', '3.90% American Tower Corp 2030', '4.10% American Tower Corp 2034']</t>
-  </si>
-  <si>
-    <t>['9.50% Angolan Government International Bond 2025', '8,25 ANGOL 09-05-2028 (REGS)', '8.25% Angolan Government International Bond 2028', 'REPUBLIC OF ANGOLA 8.25% 09.05.2028', 'REPUBLIC OF ANGOLA 9.375% 08.05.2048', 'REPUBLIC OF ANGOLA 8% 26.11.2029', '9,125 ANGOL 26-11-2049 (REGS)', 'REPUBLIC OF ANGOLA 9.125% 26.11.2049', '8,75 ANGOL 14-04-2032 (REGS)', '8.75% Angolan Government International Bond 2032', 'REPUBLIC OF ANGOLA 8.75% 14.04.2032']</t>
+    <t>['8,25 ANGOL 09-05-2028 (REGS)', 'REPUBLIC OF ANGOLA 8.25% 09.05.2028', 'REPUBLIC OF ANGOLA 9.375% 08.05.2048', 'REPUBLIC OF ANGOLA 8% 26.11.2029', '9,125 ANGOL 26-11-2049 (REGS)', 'REPUBLIC OF ANGOLA 9.125% 26.11.2049', '8,75 ANGOL 14-04-2032 (REGS)', 'REPUBLIC OF ANGOLA 8.75% 14.04.2032']</t>
   </si>
   <si>
     <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', '3,5 AZERBJ 01-09-2032 (REGS)', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032']</t>
@@ -460,7 +430,7 @@
     <t>['3,25 CGB 22-11-2028 (1827)', '3,32 CGB 15-04-2052 (INBK)', '2,76 CGB 15-05-2032 (INBK)', 'CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'MGM CHINA HOLDINGS LTD 4.75% 01.02.2027', 'SANDS CHINA LTD 4.375% 18.06.2030', '7.00% China SCE Group Holdings Ltd 2025']</t>
   </si>
   <si>
-    <t>['ARAB REPUBLIC OF EGYPT 8.5% 31.01.2047', '7.90% Egypt Government International Bond 2048', 'ARAB REPUBLIC OF EGYPT 7.903% 21.02.2048', 'ARAB REPUBLIC OF EGYPT 5.625% 16.04.2030', 'ARAB REPUBLIC OF EGYPT 7.6003% 01.03.2029', '8.70% Egypt Government International Bond 2049', 'EGYPT 8.7002 03/01/49', 'ARAB REPUBLIC OF EGYPT 4.75% 11.04.2025', 'ARAB REPUBLIC OF EGYPT 6.375% 11.04.2031', 'EGYPT 6 3/8 04/11/31', 'AFRICAN EXPORT-IMPORT BA 3.994% 21.09.2029', 'ARAB REPUBLIC OF EGYPT 7.0529% 15.01.2032', '8,875 EGYPT 29-05-2050 (REGS)', 'ARAB REPUBLIC OF EGYPT 8.875% 29.05.2050', 'Egypt, Arab Republic Of (Government) 5.25% 20251006', 'ARAB REPUBLIC OF EGYPT 3.875% 16.02.2026', 'ARAB REPUBLIC OF EGYPT 7.5% 16.02.2061', '5,875 EGYPT 16-02-2031 (REGS)', '5.88% Egypt Government International Bond 2031', 'AFRICAN EXPORT-IMPORT BA 3.798% 17.05.2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'EGYPT 8 3/4 09/30/51', 'EGYPT TASKEEK CO 10.875% 28.02.2026', 'EGYPT TASKEEK COMPANY 10.875% 28.02.2026']</t>
+    <t>['ARAB REPUBLIC OF EGYPT 8.5% 31.01.2047', '7.90% Egypt Government International Bond 2048', 'ARAB REPUBLIC OF EGYPT 7.903% 21.02.2048', 'ARAB REPUBLIC OF EGYPT 5.625% 16.04.2030', 'ARAB REPUBLIC OF EGYPT 7.6003% 01.03.2029', '8.70% Egypt Government International Bond 2049', 'EGYPT 8.7002 03/01/49', 'ARAB REPUBLIC OF EGYPT 4.75% 11.04.2025', 'ARAB REPUBLIC OF EGYPT 6.375% 11.04.2031', 'EGYPT 6 3/8 04/11/31', 'ARAB REPUBLIC OF EGYPT 7.0529% 15.01.2032', '8,875 EGYPT 29-05-2050 (REGS)', 'ARAB REPUBLIC OF EGYPT 8.875% 29.05.2050', 'Egypt, Arab Republic Of (Government) 5.25% 20251006', 'ARAB REPUBLIC OF EGYPT 3.875% 16.02.2026', 'ARAB REPUBLIC OF EGYPT 7.5% 16.02.2061', '5,875 EGYPT 16-02-2031 (REGS)', '5.88% Egypt Government International Bond 2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'EGYPT 8 3/4 09/30/51', 'EGYPT TASKEEK CO 10.875% 28.02.2026', 'EGYPT TASKEEK COMPANY 10.875% 28.02.2026']</t>
   </si>
   <si>
     <t>['FEDERAL REP OF ETHIOPIA 11.12.2024']</t>
@@ -484,7 +454,7 @@
     <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', '8,375 NGERIA 24-03-2029 (REGS)', '8.38% Nigeria Government International Bond 2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029']</t>
   </si>
   <si>
-    <t>['14.02% Cidron Romanov Ltd 2026', 'ROMANIA GOVERNMENT BOND 3.65% 24.09.2031', 'ROMANIA GOVERNMENT BOND 4.85% 25.07.2029', '4,75 ROMGB 11-10-2034 (15Y)', 'ROMANIA GOVERNMENT BOND 2.5% 25.10.2027', '3,25 ROMGB 24-06-2026 (5Y)', 'ROMANIA GOVERNMENT BOND 6.7% 25.02.2032', 'Romania, Republic Of (Government) 6.125% 20440122', 'ROMANI 3 7/8 10/29/35', 'Romanian Government International Bond', '4,75 OMAN 15-06-2026 (REGS)', '5.38% Oman Government International Bond 2027', '6,5 OMAN 08-03-2047 (REGS)', 'OMAN GOV INTERNTL BOND 6.5% 08.03.2047', '5.63% Oman Government International Bond 2028', '6,75 OMAN 17-01-2048 (REGS)', 'OMAN 6 3/4 01/17/48', 'OMAN GOV INTERNTL BOND 6.75% 17.01.2048', 'ROMANIA 3.375% 08.02.2038', 'Romania, Republic Of (Government) 5.125% 20480615', 'OMAN 4 7/8 02/01/25', '6 OMAN 01-08-2029 (REGS)', '6.00% Oman Government International Bond 2029', '4.63% Romanian Government International Bond 2049', 'ROMANI 3 1/2 04/03/34', 'Romania, Republic Of (Government) 2.124% 20310716', 'Romania, Republic Of (Government) 2% 20320128', 'ROMANIA 3.375% 28.01.2050', 'ROMANIA 3.624% 26.05.2030', '3.00% Romanian Government International Bond 2031', 'Romania, Republic Of (Government) 3% 20310214', '4 ROMANI 14-02-2051 (REGS)', '4.00% Romanian Government International Bond 2051', 'Romania, Republic Of (Government) 4% 20510214', '6.75% Oman Government International Bond 2027', 'OQ SAOC 5.125% 06.05.2028', 'ROMANIA 2.625% 02.12.2040', 'Romania, Republic Of (Government) 1.375% 20291202', 'OMAN GOV INTERNTL BOND 7% 25.01.2051', 'BANK MUSCAT SAOG 4.75% 17.03.2026', 'Romania (Government) 2% 20330414', 'ROMANIA 2.75% 14.04.2041', 'OMAN SOVEREIGN SUKUK 4.875% 15.06.2030', 'Romania (Government) 1.75% 20300713', 'ROMANIA 2.875% 13.04.2042', '2,125% Romania 20280307', '3.63% Romanian Government International Bond 2032', 'Romania (Government) 3.625% 20320327', 'ROMANI 6 05/25/34', 'Romania (Government) 6% 20340525', '6.63% Romanian Government International Bond 2028', 'Romania 28', '7.13% Romanian Government International Bond 2033', 'Romania (Government) 7.125% 20330117', 'Romania (Government) 7.625% 20530117', 'ROMANIA 7.625% 17.01.2053', 'EDO SUKUK LTD 5.875% 21.09.2033', 'ROMANIA 6.375% 18.09.2033', 'ROMANIA 5.5% 18.09.2028', '5,875 ROMANI 30-01-2029 (REGS)', '5.88% Romanian Government International Bond 2029', '6.38% Romanian Government International Bond 2034']</t>
+    <t>['4,75 OMAN 15-06-2026 (REGS)', '5.38% Oman Government International Bond 2027', '6,5 OMAN 08-03-2047 (REGS)', 'OMAN GOV INTERNTL BOND 6.5% 08.03.2047', '5.63% Oman Government International Bond 2028', '6,75 OMAN 17-01-2048 (REGS)', 'OMAN 6 3/4 01/17/48', 'OMAN GOV INTERNTL BOND 6.75% 17.01.2048', 'OMAN 4 7/8 02/01/25', '6 OMAN 01-08-2029 (REGS)', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OQ SAOC 5.125% 06.05.2028', 'OMAN GOV INTERNTL BOND 7% 25.01.2051', 'BANK MUSCAT SAOG 4.75% 17.03.2026', 'OMAN SOVEREIGN SUKUK 4.875% 15.06.2030', 'EDO SUKUK LTD 5.875% 21.09.2033']</t>
   </si>
   <si>
     <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN 6.875% 05.12.2027', 'ISLAMIC REP OF PAKISTAN 6% 08.04.2026', 'ISLAMIC REP OF PAKISTAN 7.375% 08.04.2031', '8,875 PKSTAN 08-04-2051 (REGS)', 'ISLAMIC REP OF PAKISTAN 8.875% 08.04.2051', 'PAKISTAN WATER &amp; POWER 7.5% 04.06.2031', '7,95 PKSTAN 31-01-2029 (REGS)']</t>
@@ -493,7 +463,7 @@
     <t>['PANAMA NOTAS DEL TESORO 3.75% 17.04.2026', '8,875 PANAMA 30-09-2027', '8.88% Panama Government International Bond 2027', '7,125 PANAMA 29-01-2026', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA 3.75% 16.03.2025', '4,5 PANAMA 16-04-2050', '4.50% Panama Government International Bond 2050', '3,16 PANAMA 23-01-2030', 'REPUBLIC OF PANAMA 3.87% 23.07.2060', '4.50% Panama Government International Bond 2056', 'REPUBLIC OF PANAMA 4.5% 01.04.2056', '2.25% Panama Government International Bond 2032', 'REPUBLIC OF PANAMA 2.252% 29.09.2032', '4.50% Panama Government International Bond 2063', 'REPUBLIC OF PANAMA 4.5% 19.01.2063', '6,4 PANAMA 14-02-2035', 'REPUBLIC OF PANAMA 6.4% 14.02.2035', '6,853 PANAMA 28-03-2054', 'REPUBLIC OF PANAMA 6.853% 28.03.2054', 'REPUBLIC OF PANAMA 6.875% 31.01.2036', 'REPUBLIC OF PANAMA 7.5% 01.03.2031', '8 PANAMA 01-03-2038', 'REPUBLIC OF PANAMA 8% 01.03.2038', 'REPUBLIC OF PANAMA 7.875% 01.03.2057', 'BANCO NACIONAL DE PANAMA 2.5% 11.08.2030']</t>
   </si>
   <si>
-    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', '2,25 QPETRO 12-07-2031 (REGS)', 'QATAR ENERGY 2.25% 12.07.2031']</t>
+    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', 'QATAR ENERGY 2.25% 12.07.2031']</t>
   </si>
   <si>
     <t>['5,5 RWANDA 09-08-2031 (REGS)', '5.50% Rwanda International Government Bond 2031', 'REPUBLIC OF RWANDA 5.5% 09.08.2031']</t>
@@ -508,7 +478,7 @@
     <t>['TRINIDAD &amp; TOBAGO 4.5% 26.06.2030', 'TRINIDAD &amp; TOBAGO 5.95% 14.01.2031', 'TRINIDAD &amp; TOBAGO 6.4% 26.06.2034']</t>
   </si>
   <si>
-    <t>['Tunisian Republic', 'TUNISIAN REPUBLIC 5.75% 30.01.2025', '6.38% Tunisian Republic 2026']</t>
+    <t>['TUNISIAN REPUBLIC 5.75% 30.01.2025']</t>
   </si>
   <si>
     <t>['6 TURKEY 14-01-2041', 'TURKEY 4 7/8 04/16/43', '4,875 TURKEY 09-10-2026', '5,75 TURKEY 11-05-2047', '6,5 TURKEY 20-09-2033', 'TURKEY 9 3/8 03/14/29', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR TURK ENRG FUNDING 7.23% 17.03.2026', '5,875 TURKEY 21-05-2030']</t>
@@ -529,10 +499,7 @@
     <t>['5.38% Zambia Government International Bond 2022', '8,5 ZAMBIN 14-04-2024 (REGS)', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
   </si>
   <si>
-    <t>['Ikast-Brande', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Kalundborg', 'Vesthimmerland', 'Vejen', 'Assens', 'Region Sjælland', 'Skanderborg', 'Tønder', 'Vallensbæk', 'Viborg', 'Haderslev', 'Fanø', 'Herning', 'Region Nordjylland', 'Rudersdal', 'Ballerup', 'Fredericia', 'Greve', 'Høje Taastrup', 'Kolding', 'Mariagerfjord', 'Næstved', 'Skive', 'Varde']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
+    <t>['Herning', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
   </si>
   <si>
     <t>['Fanø', 'Kalundborg', 'Herning']</t>
@@ -577,7 +544,7 @@
     <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
   </si>
   <si>
-    <t>['Skive', 'Vejen', 'Kalundborg', 'Herning', 'Silkeborg', 'Vesthimmerland', 'Greve', 'Kolding', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Hedensted', 'Slagelse', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Rødovre', 'Fanø', 'Vejle', 'Region Sjælland']</t>
+    <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Rødovre', 'Vejen', 'Greve', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Fanø']</t>
   </si>
   <si>
     <t>['Ringkøbing-Skjern', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen', 'Herning']</t>
@@ -593,9 +560,6 @@
   </si>
   <si>
     <t>['Herning']</t>
-  </si>
-  <si>
-    <t>['Hedensted', 'Slagelse', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
   </si>
   <si>
     <t>['Herning', 'Fredericia', 'Greve', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Rødovre', 'Vejen']</t>
@@ -619,8 +583,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,21 +647,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +691,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -769,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -804,10 +759,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -980,22 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,30 +964,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1049,22 +995,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1072,22 +1018,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1095,22 +1041,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1118,137 +1064,137 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1256,22 +1202,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1279,22 +1225,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1302,68 +1248,68 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1371,22 +1317,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1394,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1417,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1440,45 +1386,45 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1486,45 +1432,45 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1532,160 +1478,160 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1693,88 +1639,42 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/unique_lande_all_isin.xlsx
+++ b/data/unique_lande_all_isin.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="351">
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
   <si>
     <t>Land oversat</t>
   </si>
   <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>ISIN</t>
-  </si>
-  <si>
     <t>Årsag til eksklusion</t>
   </si>
   <si>
@@ -37,547 +37,1036 @@
     <t>Kommuner</t>
   </si>
   <si>
+    <t>CND10001RRB3</t>
+  </si>
+  <si>
+    <t>CND10004TCP5</t>
+  </si>
+  <si>
+    <t>CND10004TM71</t>
+  </si>
+  <si>
+    <t>CND10006GPT1</t>
+  </si>
+  <si>
+    <t>HK0000116415</t>
+  </si>
+  <si>
+    <t>HK0000317732</t>
+  </si>
+  <si>
+    <t>HK0000867637</t>
+  </si>
+  <si>
+    <t>IL0060404899</t>
+  </si>
+  <si>
+    <t>PAL634445TA1</t>
+  </si>
+  <si>
+    <t>US55300RAG65</t>
+  </si>
+  <si>
+    <t>US698299AD63</t>
+  </si>
+  <si>
+    <t>US698299AV61</t>
+  </si>
+  <si>
+    <t>US698299BE38</t>
+  </si>
+  <si>
+    <t>US698299BH68</t>
+  </si>
+  <si>
+    <t>US698299BK97</t>
+  </si>
+  <si>
+    <t>US698299BL70</t>
+  </si>
+  <si>
+    <t>US698299BM53</t>
+  </si>
+  <si>
+    <t>US698299BN37</t>
+  </si>
+  <si>
+    <t>US698299BS24</t>
+  </si>
+  <si>
+    <t>US698299BT07</t>
+  </si>
+  <si>
+    <t>US698299BV52</t>
+  </si>
+  <si>
+    <t>US698299BW36</t>
+  </si>
+  <si>
+    <t>US698299BX19</t>
+  </si>
+  <si>
+    <t>US698299BY91</t>
+  </si>
+  <si>
+    <t>US698299BZ66</t>
+  </si>
+  <si>
+    <t>US80007RAL96</t>
+  </si>
+  <si>
+    <t>US900123BJ84</t>
+  </si>
+  <si>
+    <t>US900123CB40</t>
+  </si>
+  <si>
+    <t>US900123CK49</t>
+  </si>
+  <si>
+    <t>US900123CM05</t>
+  </si>
+  <si>
+    <t>US900123DD96</t>
+  </si>
+  <si>
+    <t>US900123DH01</t>
+  </si>
+  <si>
+    <t>US922646AS37</t>
+  </si>
+  <si>
+    <t>USP1559LAA72</t>
+  </si>
+  <si>
+    <t>USP17625AA59</t>
+  </si>
+  <si>
+    <t>USP17625AB33</t>
+  </si>
+  <si>
+    <t>USP17625AC16</t>
+  </si>
+  <si>
+    <t>USP17625AD98</t>
+  </si>
+  <si>
+    <t>USP17625AE71</t>
+  </si>
+  <si>
+    <t>USP7807HAR68</t>
+  </si>
+  <si>
+    <t>USP7807HAT25</t>
+  </si>
+  <si>
+    <t>USP7807HAV70</t>
+  </si>
+  <si>
+    <t>USP93960AH80</t>
+  </si>
+  <si>
+    <t>USP93960AJ47</t>
+  </si>
+  <si>
+    <t>USP93960AK10</t>
+  </si>
+  <si>
+    <t>USP97475AP55</t>
+  </si>
+  <si>
+    <t>USU35914AA51</t>
+  </si>
+  <si>
+    <t>XS0085134574</t>
+  </si>
+  <si>
+    <t>XS0217249126</t>
+  </si>
+  <si>
+    <t>XS0294364954</t>
+  </si>
+  <si>
+    <t>XS0294367205</t>
+  </si>
+  <si>
+    <t>XS0707820659</t>
+  </si>
+  <si>
+    <t>XS0828779594</t>
+  </si>
+  <si>
+    <t>XS0859366899</t>
+  </si>
+  <si>
+    <t>XS1056386714</t>
+  </si>
+  <si>
+    <t>XS1056560920</t>
+  </si>
+  <si>
+    <t>XS1110833123</t>
+  </si>
+  <si>
+    <t>XS1151974877</t>
+  </si>
+  <si>
+    <t>XS1175223699</t>
+  </si>
+  <si>
+    <t>XS1196417569</t>
+  </si>
+  <si>
+    <t>XS1196419854</t>
+  </si>
+  <si>
+    <t>XS1245960684</t>
+  </si>
+  <si>
+    <t>XS1267081575</t>
+  </si>
+  <si>
+    <t>XS1313647841</t>
+  </si>
+  <si>
+    <t>XS1313675974</t>
+  </si>
+  <si>
+    <t>XS1313779081</t>
+  </si>
+  <si>
+    <t>XS1319820897</t>
+  </si>
+  <si>
+    <t>XS1396347566</t>
+  </si>
+  <si>
+    <t>XS1405770220</t>
+  </si>
+  <si>
+    <t>XS1405777589</t>
+  </si>
+  <si>
+    <t>XS1405782159</t>
+  </si>
+  <si>
+    <t>XS1419879769</t>
+  </si>
+  <si>
+    <t>XS1558078496</t>
+  </si>
+  <si>
+    <t>XS1575967218</t>
+  </si>
+  <si>
+    <t>XS1575968026</t>
+  </si>
+  <si>
+    <t>XS1577950311</t>
+  </si>
+  <si>
+    <t>XS1586230051</t>
+  </si>
+  <si>
+    <t>XS1586230309</t>
+  </si>
+  <si>
+    <t>XS1678623734</t>
+  </si>
+  <si>
+    <t>XS1694218469</t>
+  </si>
+  <si>
+    <t>XS1717011982</t>
+  </si>
+  <si>
+    <t>XS1717013095</t>
+  </si>
+  <si>
+    <t>XS1729875598</t>
+  </si>
+  <si>
+    <t>XS1750113661</t>
+  </si>
+  <si>
+    <t>XS1750114396</t>
+  </si>
+  <si>
+    <t>XS1775617464</t>
+  </si>
+  <si>
+    <t>XS1777972941</t>
+  </si>
+  <si>
+    <t>XS1807174393</t>
+  </si>
+  <si>
+    <t>XS1807174559</t>
+  </si>
+  <si>
+    <t>XS1807299331</t>
+  </si>
+  <si>
+    <t>XS1807305328</t>
+  </si>
+  <si>
+    <t>XS1819680288</t>
+  </si>
+  <si>
+    <t>XS1819680528</t>
+  </si>
+  <si>
+    <t>XS1827041721</t>
+  </si>
+  <si>
+    <t>XS1910826996</t>
+  </si>
+  <si>
+    <t>XS1910827887</t>
+  </si>
+  <si>
+    <t>XS1910828182</t>
+  </si>
+  <si>
+    <t>XS1944412664</t>
+  </si>
+  <si>
+    <t>XS1944412748</t>
+  </si>
+  <si>
+    <t>XS1953057061</t>
+  </si>
+  <si>
+    <t>XS1953057491</t>
+  </si>
+  <si>
+    <t>XS1953915136</t>
+  </si>
+  <si>
+    <t>XS1959337749</t>
+  </si>
+  <si>
+    <t>XS1980065301</t>
+  </si>
+  <si>
+    <t>XS1980255936</t>
+  </si>
+  <si>
+    <t>XS2010026727</t>
+  </si>
+  <si>
+    <t>XS2010030240</t>
+  </si>
+  <si>
+    <t>XS2051203862</t>
+  </si>
+  <si>
+    <t>XS2057866191</t>
+  </si>
+  <si>
+    <t>XS2058948451</t>
+  </si>
+  <si>
+    <t>XS2063540038</t>
+  </si>
+  <si>
+    <t>XS2075924048</t>
+  </si>
+  <si>
+    <t>XS2079842642</t>
+  </si>
+  <si>
+    <t>XS2083302419</t>
+  </si>
+  <si>
+    <t>XS2083302500</t>
+  </si>
+  <si>
+    <t>XS2109770151</t>
+  </si>
+  <si>
+    <t>XS2113615228</t>
+  </si>
+  <si>
+    <t>XS2155352151</t>
+  </si>
+  <si>
+    <t>XS2155352664</t>
+  </si>
+  <si>
+    <t>XS2155352748</t>
+  </si>
+  <si>
+    <t>XS2172965282</t>
+  </si>
+  <si>
+    <t>XS2175968580</t>
+  </si>
+  <si>
+    <t>XS2176899701</t>
+  </si>
+  <si>
+    <t>XS2199272662</t>
+  </si>
+  <si>
+    <t>XS2199321113</t>
+  </si>
+  <si>
+    <t>XS2207514063</t>
+  </si>
+  <si>
+    <t>XS2226973522</t>
+  </si>
+  <si>
+    <t>XS2227049108</t>
+  </si>
+  <si>
+    <t>XS2227351900</t>
+  </si>
+  <si>
+    <t>XS2234859101</t>
+  </si>
+  <si>
+    <t>XS2241075014</t>
+  </si>
+  <si>
+    <t>XS2242418957</t>
+  </si>
+  <si>
+    <t>XS2242422397</t>
+  </si>
+  <si>
+    <t>XS2248458395</t>
+  </si>
+  <si>
+    <t>XS2260457754</t>
+  </si>
+  <si>
+    <t>XS2263765856</t>
+  </si>
+  <si>
+    <t>XS2286298711</t>
+  </si>
+  <si>
+    <t>XS2288824969</t>
+  </si>
+  <si>
+    <t>XS2288906857</t>
+  </si>
+  <si>
+    <t>XS2290957146</t>
+  </si>
+  <si>
+    <t>XS2290957732</t>
+  </si>
+  <si>
+    <t>XS2297220423</t>
+  </si>
+  <si>
+    <t>XS2297221405</t>
+  </si>
+  <si>
+    <t>XS2297226545</t>
+  </si>
+  <si>
+    <t>XS2302929901</t>
+  </si>
+  <si>
+    <t>XS2310799809</t>
+  </si>
+  <si>
+    <t>XS2322319398</t>
+  </si>
+  <si>
+    <t>XS2322319638</t>
+  </si>
+  <si>
+    <t>XS2322321964</t>
+  </si>
+  <si>
+    <t>XS2337067792</t>
+  </si>
+  <si>
+    <t>XS2348591707</t>
+  </si>
+  <si>
+    <t>XS2351310482</t>
+  </si>
+  <si>
+    <t>XS2356571559</t>
+  </si>
+  <si>
+    <t>XS2357494322</t>
+  </si>
+  <si>
+    <t>XS2365195978</t>
+  </si>
+  <si>
+    <t>XS2366832496</t>
+  </si>
+  <si>
+    <t>XS2373051320</t>
+  </si>
+  <si>
+    <t>XS2384701020</t>
+  </si>
+  <si>
+    <t>XS2384704800</t>
+  </si>
+  <si>
+    <t>XS2391395154</t>
+  </si>
+  <si>
+    <t>XS2391398174</t>
+  </si>
+  <si>
+    <t>XS2399149694</t>
+  </si>
+  <si>
+    <t>XS2407752711</t>
+  </si>
+  <si>
+    <t>XS2419405274</t>
+  </si>
+  <si>
+    <t>XS2445169985</t>
+  </si>
+  <si>
+    <t>XS2446175577</t>
+  </si>
+  <si>
+    <t>XS2472852610</t>
+  </si>
+  <si>
+    <t>XS2477752260</t>
+  </si>
+  <si>
+    <t>XS2490731721</t>
+  </si>
+  <si>
+    <t>XS2530049837</t>
+  </si>
+  <si>
+    <t>XS2539374673</t>
+  </si>
+  <si>
+    <t>XS2548892020</t>
+  </si>
+  <si>
+    <t>XS2587708624</t>
+  </si>
+  <si>
+    <t>XS2602742285</t>
+  </si>
+  <si>
+    <t>XS2624479288</t>
+  </si>
+  <si>
+    <t>XS2651081304</t>
+  </si>
+  <si>
+    <t>XS2677030194</t>
+  </si>
+  <si>
+    <t>XS2684502623</t>
+  </si>
+  <si>
+    <t>XS2689095086</t>
+  </si>
+  <si>
+    <t>XS2701166717</t>
+  </si>
+  <si>
+    <t>XS2707149600</t>
+  </si>
+  <si>
+    <t>XS2725803162</t>
+  </si>
+  <si>
+    <t>XS2759982064</t>
+  </si>
+  <si>
+    <t>XS2764424813</t>
+  </si>
+  <si>
+    <t>XS2790222116</t>
+  </si>
+  <si>
+    <t>XS2800066297</t>
+  </si>
+  <si>
+    <t>XS2800066370</t>
+  </si>
+  <si>
+    <t>XS2811094213</t>
+  </si>
+  <si>
+    <t>XS2827783437</t>
+  </si>
+  <si>
+    <t>XS2827786455</t>
+  </si>
+  <si>
+    <t>XS2830445727</t>
+  </si>
+  <si>
+    <t>XS2834924867</t>
+  </si>
+  <si>
+    <t>XS2852966501</t>
+  </si>
+  <si>
+    <t>XS2853544398</t>
+  </si>
+  <si>
+    <t>Kina; China</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Tyrkiet</t>
+  </si>
+  <si>
+    <t>Venezuela; Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Trinidad og Tobago; Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Libanon; Lebanon</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Etiopien</t>
+  </si>
+  <si>
+    <t>Tunesien</t>
+  </si>
+  <si>
+    <t>Cameroun; Cameroon</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Qatar; Qatar*</t>
+  </si>
+  <si>
+    <t>Egypten</t>
+  </si>
+  <si>
+    <t>Saudi Arabien; Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Forenede Arabiske Emirater (UAE)</t>
+  </si>
+  <si>
+    <t>Togo</t>
   </si>
   <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>China</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Cameroun; Cameroon</t>
-  </si>
-  <si>
-    <t>Kina; China</t>
-  </si>
-  <si>
-    <t>Egypten</t>
-  </si>
-  <si>
-    <t>Etiopien</t>
-  </si>
-  <si>
-    <t>Libanon; Lebanon</t>
-  </si>
-  <si>
-    <t>Qatar; Qatar*</t>
-  </si>
-  <si>
-    <t>Saudi Arabien; Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Trinidad og Tobago; Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunesien</t>
-  </si>
-  <si>
-    <t>Tyrkiet</t>
-  </si>
-  <si>
-    <t>Forenede Arabiske Emirater (UAE)</t>
-  </si>
-  <si>
-    <t>Venezuela; Venezuela, RB</t>
-  </si>
-  <si>
-    <t>XS1819680288; XS1819680528; XS2083302419; XS2083302500; XS2446175577</t>
-  </si>
-  <si>
-    <t>XS1319820897; XS1678623734</t>
-  </si>
-  <si>
-    <t>XS1110833123; XS2058948451; XS2172965282; XS2290957146; XS2290957732; XS2764424813; XS2834924867</t>
-  </si>
-  <si>
-    <t>XS2286298711; XS2366832496; XS2759982064</t>
-  </si>
-  <si>
-    <t>XS1827041721; XS2356571559</t>
-  </si>
-  <si>
-    <t>XS1313779081</t>
-  </si>
-  <si>
-    <t>CND10001RRB3; CND10004TCP5; CND10004TM71; CND10006GPT1; HK0000116415; HK0000317732; HK0000867637; US55300RAG65; US80007RAL96; XS2227351900</t>
-  </si>
-  <si>
-    <t>XS1558078496; XS1775617464; XS1807305328; XS1953057061; XS1953057491; XS1980065301; XS1980255936; XS2079842642; XS2176899701; XS2241075014; XS2297220423; XS2297221405; XS2297226545; XS2391395154; XS2391398174; XS2530049837</t>
-  </si>
-  <si>
-    <t>XS1151974877</t>
-  </si>
-  <si>
-    <t>USU35914AA51; XS1245960684; XS2113615228; XS2407752711</t>
-  </si>
-  <si>
-    <t>IL0060404899</t>
-  </si>
-  <si>
-    <t>XS1405770220; XS1577950311; XS2199272662; XS2199321113; XS2490731721; XS2602742285</t>
-  </si>
-  <si>
-    <t>XS1807299331; XS2010030240; XS2242422397; XS2399149694; XS2472852610; XS2800066297; XS2800066370</t>
-  </si>
-  <si>
-    <t>XS0707820659; XS0859366899; XS1196417569; XS1196419854; XS1313647841; XS1313675974; XS1396347566; XS1419879769; XS1586230051; XS1586230309</t>
-  </si>
-  <si>
-    <t>XS2051203862</t>
-  </si>
-  <si>
-    <t>XS1717011982; XS1717013095; XS1777972941; XS1910826996; XS1910827887; XS1910828182; XS2337067792; XS2384701020; XS2384704800; XS2445169985</t>
-  </si>
-  <si>
-    <t>XS1405777589; XS1575967218; XS1575968026; XS1750113661; XS1750114396; XS1944412664; XS1944412748; XS2234859101; XS2248458395; XS2288906857; XS2310799809; XS2351310482; XS2689095086</t>
-  </si>
-  <si>
-    <t>XS1056560920; XS1729875598; XS2322319398; XS2322319638; XS2322321964; XS2348591707; XS2419405274</t>
-  </si>
-  <si>
-    <t>PAL634445TA1; US698299AD63; US698299AV61; US698299BE38; US698299BH68; US698299BK97; US698299BL70; US698299BM53; US698299BN37; US698299BS24; US698299BT07; US698299BV52; US698299BW36; US698299BX19; US698299BY91; US698299BZ66; USP1559LAA72</t>
-  </si>
-  <si>
-    <t>XS1405782159; XS1807174393; XS1807174559; XS1959337749; XS2155352151; XS2155352664; XS2155352748; XS2357494322</t>
-  </si>
-  <si>
-    <t>XS2373051320</t>
-  </si>
-  <si>
-    <t>XS1694218469; XS2109770151; XS2548892020</t>
-  </si>
-  <si>
-    <t>XS2063540038; XS2288824969</t>
-  </si>
-  <si>
-    <t>USP93960AH80; USP93960AJ47; USP93960AK10</t>
-  </si>
-  <si>
-    <t>XS1175223699</t>
-  </si>
-  <si>
-    <t>US900123BJ84; US900123CB40; US900123CK49; US900123CM05; US900123DD96; US900123DH01; XS2477752260; XS2790222116</t>
-  </si>
-  <si>
-    <t>XS2057866191; XS2075924048; XS2175968580; XS2207514063; XS2226973522; XS2227049108; XS2302929901; XS2539374673; XS2587708624; XS2624479288; XS2651081304; XS2677030194; XS2684502623; XS2707149600; XS2725803162; XS2811094213; XS2830445727; XS2852966501</t>
-  </si>
-  <si>
-    <t>XS1953915136; XS2010026727; XS2242418957; XS2260457754; XS2263765856; XS2365195978; XS2701166717; XS2827783437; XS2827786455; XS2853544398</t>
-  </si>
-  <si>
-    <t>US922646AS37; USP17625AB33; USP17625AC16; USP17625AD98; USP17625AE71; USP17625AA59; USP7807HAR68; USP7807HAT25; USP7807HAV70; USP97475AP55; XS0217249126; XS0294364954; XS0294367205</t>
-  </si>
-  <si>
-    <t>XS0085134574</t>
-  </si>
-  <si>
-    <t>XS0828779594; XS1056386714; XS1267081575</t>
+    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner; Lærernes Pension: Ikke nævnt; PenSam: Risikovurdering, ESG-forhold</t>
+  </si>
+  <si>
+    <t>Lægernes Pension: EU-sanktioner</t>
+  </si>
+  <si>
+    <t>Lægernes Pension: Skat; Lærernes Pension: Ikke nævnt; PenSam: Skat (EU's sortliste)</t>
+  </si>
+  <si>
+    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner</t>
+  </si>
+  <si>
+    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Industriens Pension: Low ESG performance; Lægernes Pension: EU-sanktioner; PenSam: EU-sanktioner; Sydinvest: Årsag ikke nævnt; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
+  </si>
+  <si>
+    <t>Lægernes Pension: Skat; Lærernes Pension: Ikke nævnt</t>
+  </si>
+  <si>
+    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier</t>
+  </si>
+  <si>
+    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner, dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
+  </si>
+  <si>
+    <t>Lægernes Pension: Dårlig regeringsførelse</t>
   </si>
   <si>
     <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse</t>
   </si>
   <si>
+    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lærernes Pension: Ikke nævnt</t>
+  </si>
+  <si>
+    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse</t>
+  </si>
+  <si>
+    <t>Akademiker Pension: Menneskerettigheder; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
+  </si>
+  <si>
     <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier</t>
   </si>
   <si>
-    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lærernes Pension: Ikke nævnt</t>
+    <t>Akademiker Pension: Menneskerettigheder; Klima; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Industriens Pension: Low ESG performance; Lærernes Pension: Ikke nævnt; Sampension: Lever ikke op til Sampensions politik for ansvarlige investeringer</t>
+  </si>
+  <si>
+    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
+  </si>
+  <si>
+    <t>Danske Bank: Country Exclusions; Industriens Pension: Low ESG performance; Lægernes Pension: EU-sanktioner, dårlig regeringsførelse; PenSam: Risikovurdering, ESG-forhold; Sydinvest: Årsag ikke nævnt; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
   </si>
   <si>
     <t>Akademiker Pension: Menneskerettigheder</t>
   </si>
   <si>
-    <t>Danske Bank: Country Exclusions; Industriens Pension: Low ESG performance; Lægernes Pension: EU-sanktioner, dårlig regeringsførelse; PenSam: Risikovurdering, ESG-forhold; Sydinvest: Årsag ikke nævnt; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
-  </si>
-  <si>
-    <t>Akademiker Pension: Menneskerettigheder; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
-  </si>
-  <si>
-    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner; Lærernes Pension: Ikke nævnt; PenSam: Risikovurdering, ESG-forhold</t>
-  </si>
-  <si>
-    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier</t>
-  </si>
-  <si>
-    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse</t>
-  </si>
-  <si>
-    <t>Lægernes Pension: EU-sanktioner</t>
-  </si>
-  <si>
-    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner, dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
-  </si>
-  <si>
-    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: Dårlig regeringsførelse; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
-  </si>
-  <si>
-    <t>Lægernes Pension: Skat; Lærernes Pension: Ikke nævnt; PenSam: Skat (EU's sortliste)</t>
-  </si>
-  <si>
     <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; PFA: Ekskluderer lande, som enten er underlagt internationale sanktioner, eller som PFA har vurderet som ikke-investeringsegnede.</t>
   </si>
   <si>
-    <t>Akademiker Pension: Menneskerettigheder; Klima; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Industriens Pension: Low ESG performance; Lærernes Pension: Ikke nævnt; Sampension: Lever ikke op til Sampensions politik for ansvarlige investeringer</t>
-  </si>
-  <si>
-    <t>Lægernes Pension: Skat; Lærernes Pension: Ikke nævnt</t>
-  </si>
-  <si>
-    <t>AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Lægernes Pension: EU-sanktioner</t>
-  </si>
-  <si>
-    <t>Akademiker Pension: Menneskerettigheder; AP Pension: Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Industriens Pension: Low ESG performance; Lægernes Pension: EU-sanktioner; PenSam: EU-sanktioner; Sydinvest: Årsag ikke nævnt; Velliv: Vurderer landet ikke har en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
-  </si>
-  <si>
-    <t>Lægernes Pension: Dårlig regeringsførelse</t>
+    <t>["People's Republic of China", 'China Government Bond', 'Kina', 'Macau', 'MGM China Holdings Ltd', 'Sands China Ltd', nan]</t>
+  </si>
+  <si>
+    <t>['Bank Leumi le-Israel']</t>
+  </si>
+  <si>
+    <t>['Panama', 'Panama Notas del Tesoro', 'PANAMA NOTAS DEL TESORO  ', 'Republic of Panama', '8.88% Panama Government International Bond 2027', 'Panama Government International Bond', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA  ', '4.50% Panama Government International Bond 2050', '4.50% Panama Government International Bond 2056', '2.25% Panama Government International Bond 2032', '4.50% Panama Government International Bond 2063', 'Banco Nacional de Panama', 'BANCO NACIONAL DE PANAMA  ']</t>
+  </si>
+  <si>
+    <t>['Republic of Turkiye/The', 'Turkey 16.04.2043', 'Turkey Government International Bond 14.03.2029', 'Turkey Government International Obligation 14.03.2029', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR Turkey Enerji AS via Steas Funding 1 DAC']</t>
+  </si>
+  <si>
+    <t>['REPUBLIC OF VENEZUELA ', 'Venezuela', 'Venezuela Government International Bond', 'PETROLEOS DE VENEZUELA S ', '8.50% Petroleos de Venezuela SA 2020', 'Petroleos de Venezuela SA']</t>
+  </si>
+  <si>
+    <t>['Trinidad And Tobago']</t>
+  </si>
+  <si>
+    <t>['6.10% Gabon Blue Bond Master Trust Series 2 2038', 'Gabon Blue Bond Master Trust Series 2', 'GABON BLUE BOND MASTER  ', 'USA', nan, '6.95% Gabon Government International Bond 2025', 'Gabon Government International Bond', 'Gabon', 'REPUBLIC OF GABON  ']</t>
+  </si>
+  <si>
+    <t>['Vietnam 13.03.2028']</t>
+  </si>
+  <si>
+    <t>['Lebanon', 'Lebanon Government International Bond', 'LEBANON, REPUBLIC OF (GOVERNMENT)', '6.20% Lebanon Government International Bond 2025', 'Lebanese Republic', '6.65% Lebanon Government International Bond 2030']</t>
+  </si>
+  <si>
+    <t>['5.38% Zambia Government International Bond 2022', 'Zambia Government International Bond', 'Republic of Zambia', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
+  </si>
+  <si>
+    <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN  ', 'Pakistan', 'Pakistan Government International Bond', 'Islamic Republic of Pakistan', 'PAKISTAN WATER &amp; POWER  ', 'Pakistan Water &amp; Power Development Authority']</t>
+  </si>
+  <si>
+    <t>['Bahrain Government International Bond', 'Bosnien &amp;amp; Her.', 'KINGDOM OF BAHRAIN  ', 'Kingdom of Bahrain', 'Bosnien &amp; Her.', 'BANK BAHRAIN &amp; KUWAIT  ', 'BBK BSC']</t>
+  </si>
+  <si>
+    <t>['Ethiopia', 'Ethiopia International Bond', 'FEDERAL REP OF ETHIOPIA ']</t>
+  </si>
+  <si>
+    <t>['Tunisia']</t>
+  </si>
+  <si>
+    <t>['9.50% Republic of Cameroon International Bond 2025', 'Republic of Cameroon']</t>
+  </si>
+  <si>
+    <t>['Azerbaijan', 'Republic of Azerbaijan', 'REPUBLIC OF AZERBAIJAN  ']</t>
+  </si>
+  <si>
+    <t>['5.75% Jordan Government International Bond 2027', 'Jordan Government International Bond', 'Hashemite Kingdom of Jordan', nan, 'Jordan', 'KINGDOM OF JORDAN  ', '4.95% Jordan Government International Bond 2025', '7.75% Jordan Government International Bond 2028']</t>
+  </si>
+  <si>
+    <t>['Sultanate of Oman', '5.38% Oman Government International Bond 2027', 'Oman Government International Bond', 'Oman', 'OMAN GOV INTERNTL BOND  ', '5.63% Oman Government International Bond 2028', 'Oman Government International Bond 17.01.2048', 'Oman Government International Obligation 17.01.2048', 'Oman Government International Bond 01.02.2025', 'Oman Government International Obligation 01.02.2025', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OMAN SOVEREIGN SUKUK  ', 'Oman Sovereign Sukuk Co']</t>
+  </si>
+  <si>
+    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QATAR ENERGY  ', 'QatarEnergy']</t>
+  </si>
+  <si>
+    <t>['ARAB REPUBLIC OF EGYPT  ', 'Egypt Government International Bond', 'Egypten', '7.90% Egypt Government International Bond 2048', '8.70% Egypt Government International Bond 2049', 'Egypt Government International Bond 01.03.2049', 'Egypt Government International Obligation 01.03.2049', 'Egypt Government International Bond 11.04.2031', 'Egypt Government International Obligation 11.04.2031', 'Arab Republic of Egypt', 'EGYPT, ARAB REPUBLIC OF (GOVERNMENT)', '5.88% Egypt Government International Bond 2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'Egypt Government International Bond 30.09.2051', 'Egypt Government International Obligation 30.09.2051', 'EGYPT TASKEEK CO  ', 'Egyptian Financial Co for Sovereign Taskeek/The']</t>
+  </si>
+  <si>
+    <t>['Kingdom of Saudi Arabia']</t>
+  </si>
+  <si>
+    <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
+  </si>
+  <si>
+    <t>['Kazakhstan', 'Development Bank of Kazakhstan JSC 12.05.2025', 'Development Bank of Kazakhstan JSC']</t>
   </si>
   <si>
     <t>['Republic of Angola', 'Angola', 'Angolan Government International Bond', 'REPUBLIC OF ANGOLA  ']</t>
   </si>
   <si>
-    <t>['Azerbaijan', 'Republic of Azerbaijan', 'REPUBLIC OF AZERBAIJAN  ']</t>
-  </si>
-  <si>
-    <t>['Bahrain Government International Bond', 'Bosnien &amp;amp; Her.', 'KINGDOM OF BAHRAIN  ', 'Kingdom of Bahrain', 'Bosnien &amp; Her.', 'BANK BAHRAIN &amp; KUWAIT  ', 'BBK BSC']</t>
+    <t>['Burundi']</t>
+  </si>
+  <si>
+    <t>['Republic of Uzbekistan', '5.38% Republic of Uzbekistan International Bond 2029', 'REPUBLIC OF UZBEKISTAN  ', 'Republic of Uzbekistan International Bond', 'Uzbekistan', nan, 'National Bank of Uzbekistan', '3.70% Republic of Uzbekistan International Bond 2030', '7.85% Republic of Uzbekistan International Bond 2028', 'UZBEKISTAN INTL BOND  ']</t>
+  </si>
+  <si>
+    <t>['Mozambique', 'REPUBLIC OF MOZAMBIQUE ']</t>
+  </si>
+  <si>
+    <t>['Emirate of Abu Dhabi United Arab Emirates', 'United Arab Emirates', 'Emirate of Dubai United Arab Emirates']</t>
+  </si>
+  <si>
+    <t>['Togo']</t>
   </si>
   <si>
     <t>['Benin', 'BENIN INTL GOV BOND  ', nan, 'BENIN, REPUBLIC OF (GOVERNMENT)', 'Republic of Benin', '7.96% Benin Government International Bond 2038', 'Benin Government International Bond']</t>
   </si>
   <si>
-    <t>['Burundi']</t>
-  </si>
-  <si>
-    <t>['9.50% Republic of Cameroon International Bond 2025', 'Republic of Cameroon']</t>
-  </si>
-  <si>
-    <t>["People's Republic of China", 'China Government Bond', 'Kina', 'Macau', 'MGM China Holdings Ltd', 'Sands China Ltd', nan]</t>
-  </si>
-  <si>
-    <t>['ARAB REPUBLIC OF EGYPT  ', 'Egypt Government International Bond', 'Egypten', '7.90% Egypt Government International Bond 2048', '8.70% Egypt Government International Bond 2049', 'Egypt Government International Bond 01.03.2049', 'Egypt Government International Obligation 01.03.2049', 'Egypt Government International Bond 11.04.2031', 'Egypt Government International Obligation 11.04.2031', 'Arab Republic of Egypt', 'EGYPT, ARAB REPUBLIC OF (GOVERNMENT)', '5.88% Egypt Government International Bond 2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'Egypt Government International Bond 30.09.2051', 'Egypt Government International Obligation 30.09.2051', 'EGYPT TASKEEK CO  ', 'Egyptian Financial Co for Sovereign Taskeek/The']</t>
-  </si>
-  <si>
-    <t>['Ethiopia', 'Ethiopia International Bond', 'FEDERAL REP OF ETHIOPIA ']</t>
-  </si>
-  <si>
-    <t>['6.10% Gabon Blue Bond Master Trust Series 2 2038', 'Gabon Blue Bond Master Trust Series 2', 'GABON BLUE BOND MASTER  ', 'USA', nan, '6.95% Gabon Government International Bond 2025', 'Gabon Government International Bond', 'Gabon', 'REPUBLIC OF GABON  ']</t>
-  </si>
-  <si>
-    <t>['Bank Leumi le-Israel']</t>
-  </si>
-  <si>
-    <t>['5.75% Jordan Government International Bond 2027', 'Jordan Government International Bond', 'Hashemite Kingdom of Jordan', nan, 'Jordan', 'KINGDOM OF JORDAN  ', '4.95% Jordan Government International Bond 2025', '7.75% Jordan Government International Bond 2028']</t>
-  </si>
-  <si>
-    <t>['Kazakhstan', 'Development Bank of Kazakhstan JSC 12.05.2025', 'Development Bank of Kazakhstan JSC']</t>
-  </si>
-  <si>
-    <t>['Lebanon', 'Lebanon Government International Bond', 'LEBANON, REPUBLIC OF (GOVERNMENT)', '6.20% Lebanon Government International Bond 2025', 'Lebanese Republic', '6.65% Lebanon Government International Bond 2030']</t>
-  </si>
-  <si>
-    <t>['Mozambique', 'REPUBLIC OF MOZAMBIQUE ']</t>
-  </si>
-  <si>
-    <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
-  </si>
-  <si>
-    <t>['Sultanate of Oman', '5.38% Oman Government International Bond 2027', 'Oman Government International Bond', 'Oman', 'OMAN GOV INTERNTL BOND  ', '5.63% Oman Government International Bond 2028', 'Oman Government International Bond 17.01.2048', 'Oman Government International Obligation 17.01.2048', 'Oman Government International Bond 01.02.2025', 'Oman Government International Obligation 01.02.2025', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OMAN SOVEREIGN SUKUK  ', 'Oman Sovereign Sukuk Co']</t>
-  </si>
-  <si>
-    <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN  ', 'Pakistan', 'Pakistan Government International Bond', 'Islamic Republic of Pakistan', 'PAKISTAN WATER &amp; POWER  ', 'Pakistan Water &amp; Power Development Authority']</t>
-  </si>
-  <si>
-    <t>['Panama', 'Panama Notas del Tesoro', 'PANAMA NOTAS DEL TESORO  ', 'Republic of Panama', '8.88% Panama Government International Bond 2027', 'Panama Government International Bond', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA  ', '4.50% Panama Government International Bond 2050', '4.50% Panama Government International Bond 2056', '2.25% Panama Government International Bond 2032', '4.50% Panama Government International Bond 2063', 'Banco Nacional de Panama', 'BANCO NACIONAL DE PANAMA  ']</t>
-  </si>
-  <si>
-    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QATAR ENERGY  ', 'QatarEnergy']</t>
-  </si>
-  <si>
     <t>['Republic of Rwanda', '5.50% Rwanda International Government Bond 2031', 'Rwanda International Government Bond', 'REPUBLIC OF RWANDA  ', 'Rwanda']</t>
   </si>
   <si>
-    <t>['Kingdom of Saudi Arabia']</t>
-  </si>
-  <si>
-    <t>['Togo']</t>
-  </si>
-  <si>
-    <t>['Trinidad And Tobago']</t>
-  </si>
-  <si>
-    <t>['Tunisia']</t>
-  </si>
-  <si>
-    <t>['Republic of Turkiye/The', 'Turkey 16.04.2043', 'Turkey Government International Bond 14.03.2029', 'Turkey Government International Obligation 14.03.2029', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR Turkey Enerji AS via Steas Funding 1 DAC']</t>
-  </si>
-  <si>
-    <t>['Emirate of Abu Dhabi United Arab Emirates', 'United Arab Emirates', 'Emirate of Dubai United Arab Emirates']</t>
-  </si>
-  <si>
-    <t>['Republic of Uzbekistan', '5.38% Republic of Uzbekistan International Bond 2029', 'REPUBLIC OF UZBEKISTAN  ', 'Republic of Uzbekistan International Bond', 'Uzbekistan', nan, 'National Bank of Uzbekistan', '3.70% Republic of Uzbekistan International Bond 2030', '7.85% Republic of Uzbekistan International Bond 2028', 'UZBEKISTAN INTL BOND  ']</t>
-  </si>
-  <si>
-    <t>['REPUBLIC OF VENEZUELA ', 'Venezuela', 'Venezuela Government International Bond', 'PETROLEOS DE VENEZUELA S ', '8.50% Petroleos de Venezuela SA 2020', 'Petroleos de Venezuela SA']</t>
-  </si>
-  <si>
-    <t>['Vietnam 13.03.2028']</t>
-  </si>
-  <si>
-    <t>['5.38% Zambia Government International Bond 2022', 'Zambia Government International Bond', 'Republic of Zambia', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
+    <t>['3,25 CGB 22-11-2028 (1827)', '3,32 CGB 15-04-2052 (INBK)', '2,76 CGB 15-05-2032 (INBK)', 'CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'MGM CHINA HOLDINGS LTD 4.75% 01.02.2027', 'SANDS CHINA LTD 4.375% 18.06.2030', '7.00% China SCE Group Holdings Ltd 2025']</t>
+  </si>
+  <si>
+    <t>['PANAMA NOTAS DEL TESORO 3.75% 17.04.2026', '8,875 PANAMA 30-09-2027', '8.88% Panama Government International Bond 2027', '7,125 PANAMA 29-01-2026', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA 3.75% 16.03.2025', '4,5 PANAMA 16-04-2050', '4.50% Panama Government International Bond 2050', '3,16 PANAMA 23-01-2030', 'REPUBLIC OF PANAMA 3.87% 23.07.2060', '4.50% Panama Government International Bond 2056', 'REPUBLIC OF PANAMA 4.5% 01.04.2056', '2.25% Panama Government International Bond 2032', 'REPUBLIC OF PANAMA 2.252% 29.09.2032', '4.50% Panama Government International Bond 2063', 'REPUBLIC OF PANAMA 4.5% 19.01.2063', '6,4 PANAMA 14-02-2035', 'REPUBLIC OF PANAMA 6.4% 14.02.2035', '6,853 PANAMA 28-03-2054', 'REPUBLIC OF PANAMA 6.853% 28.03.2054', 'REPUBLIC OF PANAMA 6.875% 31.01.2036', 'REPUBLIC OF PANAMA 7.5% 01.03.2031', '8 PANAMA 01-03-2038', 'REPUBLIC OF PANAMA 8% 01.03.2038', 'REPUBLIC OF PANAMA 7.875% 01.03.2057', 'BANCO NACIONAL DE PANAMA 2.5% 11.08.2030']</t>
+  </si>
+  <si>
+    <t>['6 TURKEY 14-01-2041', 'TURKEY 4 7/8 04/16/43', '4,875 TURKEY 09-10-2026', '5,75 TURKEY 11-05-2047', '6,5 TURKEY 20-09-2033', 'TURKEY 9 3/8 03/14/29', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR TURK ENRG FUNDING 7.23% 17.03.2026', '5,875 TURKEY 21-05-2030']</t>
+  </si>
+  <si>
+    <t>['REPUBLIC OF VENEZUELA 15.09.2027', 'REPUBLIC OF VENEZUELA 07.05.2028', 'REPUBLIC OF VENEZUELA 23.08.2022', 'REPUBLIC OF VENEZUELA 05.08.2031', 'REPUBLIC OF VENEZUELA 21.10.2026', 'REPUBLIC OF VENEZUELA 07.05.2023', 'PETROLEOS DE VENEZUELA S 15.11.2026', 'PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'REPUBLIC OF VENEZUELA 13.10.2024', 'REPUBLIC OF VENEZUELA 21.04.2025', 'PETROLEOS DE VENEZUELA S 12.04.2027', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
+  </si>
+  <si>
+    <t>['TRINIDAD &amp; TOBAGO 4.5% 26.06.2030', 'TRINIDAD &amp; TOBAGO 5.95% 14.01.2031', 'TRINIDAD &amp; TOBAGO 6.4% 26.06.2034']</t>
+  </si>
+  <si>
+    <t>['6.10% Gabon Blue Bond Master Trust Series 2 2038', 'GABON BLUE BOND MASTER 6.097% 01.08.2038', 'Gabon Blue Bond Master Trust Series 2', '6.95% Gabon Government International Bond 2025', 'REPUBLIC OF GABON 6.95% 16.06.2025', 'REPUBLIC OF GABON 6.625% 06.02.2031', 'REPUBLIC OF GABON 7% 24.11.2031']</t>
+  </si>
+  <si>
+    <t>['VIETNM Float 03/13/28']</t>
+  </si>
+  <si>
+    <t>['LEBANESE REPUBLIC 27.11.2026', 'Lebanon, Republic Of (Government) 6.75% 20271129', '6.20% Lebanon Government International Bond 2025', 'LEBANESE REPUBLIC 26.02.2025', 'Lebanon, Republic Of (Government) 6.2% 20250226', '6.65% Lebanon Government International Bond 2030', 'Lebanon, Republic Of (Government) 6.65% 20300226', 'Lebanon, Republic Of (Government) 6.25% 20241104', 'Lebanon, Republic Of (Government) 6.65% 20281103', 'LEBANESE REPUBLIC 22.04.2024', 'LEBANESE REPUBLIC 25.05.2029', 'Lebanon, Republic Of (Government) 6.85% 20270323', 'Lebanon, Republic Of (Government) 7.25% 20370323']</t>
+  </si>
+  <si>
+    <t>['5.38% Zambia Government International Bond 2022', '8,5 ZAMBIN 14-04-2024 (REGS)', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
+  </si>
+  <si>
+    <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN 6.875% 05.12.2027', 'ISLAMIC REP OF PAKISTAN 6% 08.04.2026', 'ISLAMIC REP OF PAKISTAN 7.375% 08.04.2031', '8,875 PKSTAN 08-04-2051 (REGS)', 'ISLAMIC REP OF PAKISTAN 8.875% 08.04.2051', 'PAKISTAN WATER &amp; POWER 7.5% 04.06.2031', '7,95 PKSTAN 31-01-2029 (REGS)']</t>
+  </si>
+  <si>
+    <t>['KINGDOM OF BAHRAIN 6% 19.09.2044', '5,625 BHRAIN 30-09-2031 (REGS)', '7,375 BHRAIN 14-05-2030 (REGS)', '5,25 BHRAIN 25-01-2033 (REGS)', 'KINGDOM OF BAHRAIN 6.25% 25.01.2051', 'KINGDOM OF BAHRAIN 7.5% 12.02.2036', 'BANK BAHRAIN &amp; KUWAIT 6.875% 06.06.2029']</t>
+  </si>
+  <si>
+    <t>['FEDERAL REP OF ETHIOPIA 11.12.2024']</t>
+  </si>
+  <si>
+    <t>['TUNISIAN REPUBLIC 5.75% 30.01.2025']</t>
+  </si>
+  <si>
+    <t>['9.50% Republic of Cameroon International Bond 2025']</t>
+  </si>
+  <si>
+    <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', '3,5 AZERBJ 01-09-2032 (REGS)', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032']</t>
+  </si>
+  <si>
+    <t>['5.75% Jordan Government International Bond 2027', '7,375 JORDAN 10-10-2047 (REGS)', 'Jordan Government International Bond', 'KINGDOM OF JORDAN 7.375% 10.10.2047', 'KINGDOM OF JORDAN 5.85% 07.07.2030', '4.95% Jordan Government International Bond 2025', 'KINGDOM OF JORDAN 4.95% 07.07.2025', '7,75 JORDAN 15-01-2028 (REGS)', '7.75% Jordan Government International Bond 2028', 'KINGDOM OF JORDAN 7.5% 13.01.2029']</t>
+  </si>
+  <si>
+    <t>['4,75 OMAN 15-06-2026 (REGS)', '5.38% Oman Government International Bond 2027', '6,5 OMAN 08-03-2047 (REGS)', 'OMAN GOV INTERNTL BOND 6.5% 08.03.2047', '5.63% Oman Government International Bond 2028', '6,75 OMAN 17-01-2048 (REGS)', 'OMAN 6 3/4 01/17/48', 'OMAN GOV INTERNTL BOND 6.75% 17.01.2048', 'OMAN 4 7/8 02/01/25', '6 OMAN 01-08-2029 (REGS)', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OQ SAOC 5.125% 06.05.2028', 'OMAN GOV INTERNTL BOND 7% 25.01.2051', 'BANK MUSCAT SAOG 4.75% 17.03.2026', 'OMAN SOVEREIGN SUKUK 4.875% 15.06.2030', 'EDO SUKUK LTD 5.875% 21.09.2033']</t>
+  </si>
+  <si>
+    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', 'QATAR ENERGY 2.25% 12.07.2031']</t>
+  </si>
+  <si>
+    <t>['ARAB REPUBLIC OF EGYPT 8.5% 31.01.2047', '7.90% Egypt Government International Bond 2048', 'ARAB REPUBLIC OF EGYPT 7.903% 21.02.2048', 'ARAB REPUBLIC OF EGYPT 5.625% 16.04.2030', 'ARAB REPUBLIC OF EGYPT 7.6003% 01.03.2029', '8.70% Egypt Government International Bond 2049', 'EGYPT 8.7002 03/01/49', 'ARAB REPUBLIC OF EGYPT 4.75% 11.04.2025', 'ARAB REPUBLIC OF EGYPT 6.375% 11.04.2031', 'EGYPT 6 3/8 04/11/31', 'ARAB REPUBLIC OF EGYPT 7.0529% 15.01.2032', '8,875 EGYPT 29-05-2050 (REGS)', 'ARAB REPUBLIC OF EGYPT 8.875% 29.05.2050', 'Egypt, Arab Republic Of (Government) 5.25% 20251006', 'ARAB REPUBLIC OF EGYPT 3.875% 16.02.2026', 'ARAB REPUBLIC OF EGYPT 7.5% 16.02.2061', '5,875 EGYPT 16-02-2031 (REGS)', '5.88% Egypt Government International Bond 2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'EGYPT 8 3/4 09/30/51', 'EGYPT TASKEEK CO 10.875% 28.02.2026', 'EGYPT TASKEEK COMPANY 10.875% 28.02.2026']</t>
+  </si>
+  <si>
+    <t>['4,625 KSA 04-10-2047 (REGS)', '3,75 KSA 21-01-2055 (REGS)', '5,5 KSA 25-10-2032 (REGS)']</t>
+  </si>
+  <si>
+    <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', '8,375 NGERIA 24-03-2029 (REGS)', '8.38% Nigeria Government International Bond 2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029']</t>
+  </si>
+  <si>
+    <t>['KAZMUNAYGAS NATIONAL CO 6.375% 24.10.2048', 'TENGIZCHEVROIL FIN CO IN 2.625% 15.08.2025', 'KAZMUNAYGAS NATIONAL CO 3.5% 14.04.2033', 'SAMRUK KAZYNA JSC 2% 28.10.2026', 'DBKAZ 5 3/4 05/12/25', '5.50% Development Bank of Kazakhstan JSC 2027', 'DEVELOPMENT BANK OF KAZA 5.5% 15.04.2027', '13 DBKAZ 15-04-2027 (REGS)']</t>
   </si>
   <si>
     <t>['8,25 ANGOL 09-05-2028 (REGS)', 'REPUBLIC OF ANGOLA 8.25% 09.05.2028', 'REPUBLIC OF ANGOLA 9.375% 08.05.2048', 'REPUBLIC OF ANGOLA 8% 26.11.2029', '9,125 ANGOL 26-11-2049 (REGS)', 'REPUBLIC OF ANGOLA 9.125% 26.11.2049', '8,75 ANGOL 14-04-2032 (REGS)', 'REPUBLIC OF ANGOLA 8.75% 14.04.2032']</t>
   </si>
   <si>
-    <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', '3,5 AZERBJ 01-09-2032 (REGS)', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032']</t>
-  </si>
-  <si>
-    <t>['KINGDOM OF BAHRAIN 6% 19.09.2044', '5,625 BHRAIN 30-09-2031 (REGS)', '7,375 BHRAIN 14-05-2030 (REGS)', '5,25 BHRAIN 25-01-2033 (REGS)', 'KINGDOM OF BAHRAIN 6.25% 25.01.2051', 'KINGDOM OF BAHRAIN 7.5% 12.02.2036', 'BANK BAHRAIN &amp; KUWAIT 6.875% 06.06.2029']</t>
+    <t>['EASTERN &amp; SOUTHERN AFRIC 4.875% 23.05.2024', 'EASTERN &amp; SOUTHERN AFRIC 4.125% 30.06.2028']</t>
+  </si>
+  <si>
+    <t>['5,375 UZBEK 20-02-2029 (REGS)', '5.38% Republic of Uzbekistan International Bond 2029', 'REPUBLIC OF UZBEKISTAN 5.375% 20.02.2029', 'Republic of Uzbekistan International Bond', '4,75 UNGUZB 16-11-2028 (REGS)', 'UZBEKNEFTEGAZ JSC 4.75% 16.11.2028', 'NATIONAL BANK OF UZBEKIS 4.85% 21.10.2025', 'IPOTEKA-BANK ATIB 5.5% 19.11.2025', '3.70% Republic of Uzbekistan International Bond 2030', 'REPUBLIC OF UZBEKISTAN 3.7% 25.11.2030', '3.90% Republic of Uzbekistan International Bond 2031', '7.85% Republic of Uzbekistan International Bond 2028', '6,9 UZBEK 28-02-2032 (REGS)', '6.90% Republic of Uzbekistan International Bond 2032', 'UZBEKISTAN INTL BOND 6.9% 28.02.2032', '5.38% Republic of Uzbekistan International Bond 2027', 'UZBEKISTAN INTL BOND 5.375% 29.05.2027', 'NATIONAL BANK OF UZBEKIS 8.5% 05.07.2029']</t>
+  </si>
+  <si>
+    <t>['REPUBLIC OF MOZAMBIQUE 15.09.2031']</t>
+  </si>
+  <si>
+    <t>['3,125 ADGB 30-09-2049 (REGS)', "ABU DHABI GOVT INT'L 3.125% 30.09.2049", 'MDGH GMTN RSC LTD 3.7% 07.11.2049', 'MDGH GMTN RSC LTD 3.95% 21.05.2050', 'FIN DEPT GOVT SHARJAH 4% 28.07.2050', '3,9 DUGB 09-09-2050 (EMTN)', "DUBAI GOVT INT'L BONDS 3.9% 09.09.2050", '2,763 DUGB 09-09-2030 (EMTN)', 'FIN DEPT GOVT SHARJAH 4.375% 10.03.2051', 'FIRST ABU DHABI BANK PJS 5.125% 13.10.2027', 'FIN DEPT GOVT SHARJAH 6.5% 23.11.2032', 'MDGH GMTN RSC LTD 4.375% 22.11.2033', 'ABU DHABI COMMERCIAL BNK 5.375% 18.07.2028', 'ABU DHABI COMMERCIAL BNK 5.5% 12.01.2029', '4,917 UAE 25-09-2033 (REGS)', 'MDGH GMTN RSC LTD 5.875% 01.05.2034', 'ABU DHABI COMMERCIAL BNK PERP', "ABU DHABI GOVT INT'L 5.5% 30.04.2054", 'MDGH GMTN RSC LTD 5.294% 04.06.2034', 'MAGELLAN CAPITAL HOLD 08.07.2029']</t>
+  </si>
+  <si>
+    <t>['BANQUE OUEST AFRICAINE D 4.7% 22.10.2031', 'BANQUE OUEST AFRICAINE D 2.75% 22.01.2033']</t>
   </si>
   <si>
     <t>['BENIN INTL GOV BOND 6.875% 19.01.2052', 'Benin Government International Bond', 'Benin, Republic Of (Government) 4.95% 20350122', '7,96 BENIN 13-02-2038 (REGS)', '7.96% Benin Government International Bond 2038', 'BENIN INTL GOV BOND 7.96% 13.02.2038']</t>
   </si>
   <si>
-    <t>['EASTERN &amp; SOUTHERN AFRIC 4.875% 23.05.2024', 'EASTERN &amp; SOUTHERN AFRIC 4.125% 30.06.2028']</t>
-  </si>
-  <si>
-    <t>['9.50% Republic of Cameroon International Bond 2025']</t>
-  </si>
-  <si>
-    <t>['3,25 CGB 22-11-2028 (1827)', '3,32 CGB 15-04-2052 (INBK)', '2,76 CGB 15-05-2032 (INBK)', 'CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'MGM CHINA HOLDINGS LTD 4.75% 01.02.2027', 'SANDS CHINA LTD 4.375% 18.06.2030', '7.00% China SCE Group Holdings Ltd 2025']</t>
-  </si>
-  <si>
-    <t>['ARAB REPUBLIC OF EGYPT 8.5% 31.01.2047', '7.90% Egypt Government International Bond 2048', 'ARAB REPUBLIC OF EGYPT 7.903% 21.02.2048', 'ARAB REPUBLIC OF EGYPT 5.625% 16.04.2030', 'ARAB REPUBLIC OF EGYPT 7.6003% 01.03.2029', '8.70% Egypt Government International Bond 2049', 'EGYPT 8.7002 03/01/49', 'ARAB REPUBLIC OF EGYPT 4.75% 11.04.2025', 'ARAB REPUBLIC OF EGYPT 6.375% 11.04.2031', 'EGYPT 6 3/8 04/11/31', 'ARAB REPUBLIC OF EGYPT 7.0529% 15.01.2032', '8,875 EGYPT 29-05-2050 (REGS)', 'ARAB REPUBLIC OF EGYPT 8.875% 29.05.2050', 'Egypt, Arab Republic Of (Government) 5.25% 20251006', 'ARAB REPUBLIC OF EGYPT 3.875% 16.02.2026', 'ARAB REPUBLIC OF EGYPT 7.5% 16.02.2061', '5,875 EGYPT 16-02-2031 (REGS)', '5.88% Egypt Government International Bond 2031', '7.30% Egypt Government International Bond 2033', '8.75% Egypt Government International Bond 2051', 'EGYPT 8 3/4 09/30/51', 'EGYPT TASKEEK CO 10.875% 28.02.2026', 'EGYPT TASKEEK COMPANY 10.875% 28.02.2026']</t>
-  </si>
-  <si>
-    <t>['FEDERAL REP OF ETHIOPIA 11.12.2024']</t>
-  </si>
-  <si>
-    <t>['6.10% Gabon Blue Bond Master Trust Series 2 2038', 'GABON BLUE BOND MASTER 6.097% 01.08.2038', 'Gabon Blue Bond Master Trust Series 2', '6.95% Gabon Government International Bond 2025', 'REPUBLIC OF GABON 6.95% 16.06.2025', 'REPUBLIC OF GABON 6.625% 06.02.2031', 'REPUBLIC OF GABON 7% 24.11.2031']</t>
-  </si>
-  <si>
-    <t>['5.75% Jordan Government International Bond 2027', '7,375 JORDAN 10-10-2047 (REGS)', 'Jordan Government International Bond', 'KINGDOM OF JORDAN 7.375% 10.10.2047', 'KINGDOM OF JORDAN 5.85% 07.07.2030', '4.95% Jordan Government International Bond 2025', 'KINGDOM OF JORDAN 4.95% 07.07.2025', '7,75 JORDAN 15-01-2028 (REGS)', '7.75% Jordan Government International Bond 2028', 'KINGDOM OF JORDAN 7.5% 13.01.2029']</t>
-  </si>
-  <si>
-    <t>['KAZMUNAYGAS NATIONAL CO 6.375% 24.10.2048', 'TENGIZCHEVROIL FIN CO IN 2.625% 15.08.2025', 'KAZMUNAYGAS NATIONAL CO 3.5% 14.04.2033', 'SAMRUK KAZYNA JSC 2% 28.10.2026', 'DBKAZ 5 3/4 05/12/25', '5.50% Development Bank of Kazakhstan JSC 2027', 'DEVELOPMENT BANK OF KAZA 5.5% 15.04.2027', '13 DBKAZ 15-04-2027 (REGS)']</t>
-  </si>
-  <si>
-    <t>['LEBANESE REPUBLIC 27.11.2026', 'Lebanon, Republic Of (Government) 6.75% 20271129', '6.20% Lebanon Government International Bond 2025', 'LEBANESE REPUBLIC 26.02.2025', 'Lebanon, Republic Of (Government) 6.2% 20250226', '6.65% Lebanon Government International Bond 2030', 'Lebanon, Republic Of (Government) 6.65% 20300226', 'Lebanon, Republic Of (Government) 6.25% 20241104', 'Lebanon, Republic Of (Government) 6.65% 20281103', 'LEBANESE REPUBLIC 22.04.2024', 'LEBANESE REPUBLIC 25.05.2029', 'Lebanon, Republic Of (Government) 6.85% 20270323', 'Lebanon, Republic Of (Government) 7.25% 20370323']</t>
-  </si>
-  <si>
-    <t>['REPUBLIC OF MOZAMBIQUE 15.09.2031']</t>
-  </si>
-  <si>
-    <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', '8,375 NGERIA 24-03-2029 (REGS)', '8.38% Nigeria Government International Bond 2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029']</t>
-  </si>
-  <si>
-    <t>['4,75 OMAN 15-06-2026 (REGS)', '5.38% Oman Government International Bond 2027', '6,5 OMAN 08-03-2047 (REGS)', 'OMAN GOV INTERNTL BOND 6.5% 08.03.2047', '5.63% Oman Government International Bond 2028', '6,75 OMAN 17-01-2048 (REGS)', 'OMAN 6 3/4 01/17/48', 'OMAN GOV INTERNTL BOND 6.75% 17.01.2048', 'OMAN 4 7/8 02/01/25', '6 OMAN 01-08-2029 (REGS)', '6.00% Oman Government International Bond 2029', '6.75% Oman Government International Bond 2027', 'OQ SAOC 5.125% 06.05.2028', 'OMAN GOV INTERNTL BOND 7% 25.01.2051', 'BANK MUSCAT SAOG 4.75% 17.03.2026', 'OMAN SOVEREIGN SUKUK 4.875% 15.06.2030', 'EDO SUKUK LTD 5.875% 21.09.2033']</t>
-  </si>
-  <si>
-    <t>['8.25% Pakistan Government International Bond 2024', 'ISLAMIC REP OF PAKISTAN 6.875% 05.12.2027', 'ISLAMIC REP OF PAKISTAN 6% 08.04.2026', 'ISLAMIC REP OF PAKISTAN 7.375% 08.04.2031', '8,875 PKSTAN 08-04-2051 (REGS)', 'ISLAMIC REP OF PAKISTAN 8.875% 08.04.2051', 'PAKISTAN WATER &amp; POWER 7.5% 04.06.2031', '7,95 PKSTAN 31-01-2029 (REGS)']</t>
-  </si>
-  <si>
-    <t>['PANAMA NOTAS DEL TESORO 3.75% 17.04.2026', '8,875 PANAMA 30-09-2027', '8.88% Panama Government International Bond 2027', '7,125 PANAMA 29-01-2026', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA 3.75% 16.03.2025', '4,5 PANAMA 16-04-2050', '4.50% Panama Government International Bond 2050', '3,16 PANAMA 23-01-2030', 'REPUBLIC OF PANAMA 3.87% 23.07.2060', '4.50% Panama Government International Bond 2056', 'REPUBLIC OF PANAMA 4.5% 01.04.2056', '2.25% Panama Government International Bond 2032', 'REPUBLIC OF PANAMA 2.252% 29.09.2032', '4.50% Panama Government International Bond 2063', 'REPUBLIC OF PANAMA 4.5% 19.01.2063', '6,4 PANAMA 14-02-2035', 'REPUBLIC OF PANAMA 6.4% 14.02.2035', '6,853 PANAMA 28-03-2054', 'REPUBLIC OF PANAMA 6.853% 28.03.2054', 'REPUBLIC OF PANAMA 6.875% 31.01.2036', 'REPUBLIC OF PANAMA 7.5% 01.03.2031', '8 PANAMA 01-03-2038', 'REPUBLIC OF PANAMA 8% 01.03.2038', 'REPUBLIC OF PANAMA 7.875% 01.03.2057', 'BANCO NACIONAL DE PANAMA 2.5% 11.08.2030']</t>
-  </si>
-  <si>
-    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', 'QATAR ENERGY 2.25% 12.07.2031']</t>
-  </si>
-  <si>
     <t>['5,5 RWANDA 09-08-2031 (REGS)', '5.50% Rwanda International Government Bond 2031', 'REPUBLIC OF RWANDA 5.5% 09.08.2031']</t>
   </si>
   <si>
-    <t>['4,625 KSA 04-10-2047 (REGS)', '3,75 KSA 21-01-2055 (REGS)', '5,5 KSA 25-10-2032 (REGS)']</t>
-  </si>
-  <si>
-    <t>['BANQUE OUEST AFRICAINE D 4.7% 22.10.2031', 'BANQUE OUEST AFRICAINE D 2.75% 22.01.2033']</t>
-  </si>
-  <si>
-    <t>['TRINIDAD &amp; TOBAGO 4.5% 26.06.2030', 'TRINIDAD &amp; TOBAGO 5.95% 14.01.2031', 'TRINIDAD &amp; TOBAGO 6.4% 26.06.2034']</t>
-  </si>
-  <si>
-    <t>['TUNISIAN REPUBLIC 5.75% 30.01.2025']</t>
-  </si>
-  <si>
-    <t>['6 TURKEY 14-01-2041', 'TURKEY 4 7/8 04/16/43', '4,875 TURKEY 09-10-2026', '5,75 TURKEY 11-05-2047', '6,5 TURKEY 20-09-2033', 'TURKEY 9 3/8 03/14/29', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR TURK ENRG FUNDING 7.23% 17.03.2026', '5,875 TURKEY 21-05-2030']</t>
-  </si>
-  <si>
-    <t>['3,125 ADGB 30-09-2049 (REGS)', "ABU DHABI GOVT INT'L 3.125% 30.09.2049", 'MDGH GMTN RSC LTD 3.7% 07.11.2049', 'MDGH GMTN RSC LTD 3.95% 21.05.2050', 'FIN DEPT GOVT SHARJAH 4% 28.07.2050', '3,9 DUGB 09-09-2050 (EMTN)', "DUBAI GOVT INT'L BONDS 3.9% 09.09.2050", '2,763 DUGB 09-09-2030 (EMTN)', 'FIN DEPT GOVT SHARJAH 4.375% 10.03.2051', 'FIRST ABU DHABI BANK PJS 5.125% 13.10.2027', 'FIN DEPT GOVT SHARJAH 6.5% 23.11.2032', 'MDGH GMTN RSC LTD 4.375% 22.11.2033', 'ABU DHABI COMMERCIAL BNK 5.375% 18.07.2028', 'ABU DHABI COMMERCIAL BNK 5.5% 12.01.2029', '4,917 UAE 25-09-2033 (REGS)', 'MDGH GMTN RSC LTD 5.875% 01.05.2034', 'ABU DHABI COMMERCIAL BNK PERP', "ABU DHABI GOVT INT'L 5.5% 30.04.2054", 'MDGH GMTN RSC LTD 5.294% 04.06.2034', 'MAGELLAN CAPITAL HOLD 08.07.2029']</t>
-  </si>
-  <si>
-    <t>['5,375 UZBEK 20-02-2029 (REGS)', '5.38% Republic of Uzbekistan International Bond 2029', 'REPUBLIC OF UZBEKISTAN 5.375% 20.02.2029', 'Republic of Uzbekistan International Bond', '4,75 UNGUZB 16-11-2028 (REGS)', 'UZBEKNEFTEGAZ JSC 4.75% 16.11.2028', 'NATIONAL BANK OF UZBEKIS 4.85% 21.10.2025', 'IPOTEKA-BANK ATIB 5.5% 19.11.2025', '3.70% Republic of Uzbekistan International Bond 2030', 'REPUBLIC OF UZBEKISTAN 3.7% 25.11.2030', '3.90% Republic of Uzbekistan International Bond 2031', '7.85% Republic of Uzbekistan International Bond 2028', '6,9 UZBEK 28-02-2032 (REGS)', '6.90% Republic of Uzbekistan International Bond 2032', 'UZBEKISTAN INTL BOND 6.9% 28.02.2032', '5.38% Republic of Uzbekistan International Bond 2027', 'UZBEKISTAN INTL BOND 5.375% 29.05.2027', 'NATIONAL BANK OF UZBEKIS 8.5% 05.07.2029']</t>
-  </si>
-  <si>
-    <t>['REPUBLIC OF VENEZUELA 15.09.2027', 'REPUBLIC OF VENEZUELA 07.05.2028', 'REPUBLIC OF VENEZUELA 23.08.2022', 'REPUBLIC OF VENEZUELA 05.08.2031', 'REPUBLIC OF VENEZUELA 21.10.2026', 'REPUBLIC OF VENEZUELA 07.05.2023', 'PETROLEOS DE VENEZUELA S 15.11.2026', 'PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'REPUBLIC OF VENEZUELA 13.10.2024', 'REPUBLIC OF VENEZUELA 21.04.2025', 'PETROLEOS DE VENEZUELA S 12.04.2027', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
-  </si>
-  <si>
-    <t>['VIETNM Float 03/13/28']</t>
-  </si>
-  <si>
-    <t>['5.38% Zambia Government International Bond 2022', '8,5 ZAMBIN 14-04-2024 (REGS)', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
+    <t>['Herning', 'Silkeborg', 'Vejen', 'Kalundborg', 'Skive']</t>
+  </si>
+  <si>
+    <t>['Region Sjælland']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Herning', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
+  </si>
+  <si>
+    <t>['Herning', 'Fredericia', 'Greve', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Rødovre', 'Vejen']</t>
+  </si>
+  <si>
+    <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg']</t>
+  </si>
+  <si>
+    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Fanø', 'Hedensted', 'Slagelse', 'Rødovre', 'Vejen']</t>
+  </si>
+  <si>
+    <t>['Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Vesthimmerland', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
+  </si>
+  <si>
+    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
+  </si>
+  <si>
+    <t>['Ringkøbing-Skjern', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen', 'Herning']</t>
+  </si>
+  <si>
+    <t>['Rødovre', 'Vejen', 'Fanø', 'Kalundborg', 'Herning']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
+  </si>
+  <si>
+    <t>['Ringkøbing-Skjern', 'Region Nordjylland']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg', 'Herning']</t>
+  </si>
+  <si>
+    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning', 'Hedensted', 'Slagelse', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
+  </si>
+  <si>
+    <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Rødovre', 'Vejen', 'Greve', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Fanø']</t>
+  </si>
+  <si>
+    <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
+  </si>
+  <si>
+    <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Greve', 'Herning', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Vesthimmerland']</t>
+  </si>
+  <si>
+    <t>['Herning']</t>
+  </si>
+  <si>
+    <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
+  </si>
+  <si>
+    <t>['Fanø', 'Kalundborg', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Region Nordjylland', 'Rødovre', 'Vejen', 'Silkeborg']</t>
   </si>
   <si>
     <t>['Herning', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
   </si>
   <si>
-    <t>['Fanø', 'Kalundborg', 'Herning']</t>
-  </si>
-  <si>
-    <t>['Rødovre', 'Vejen', 'Fanø', 'Kalundborg', 'Herning']</t>
+    <t>['Herning', 'Ringkøbing-Skjern', 'Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Hedensted', 'Slagelse', 'Region Nordjylland']</t>
+  </si>
+  <si>
+    <t>['Herning', 'Fanø', 'Kalundborg']</t>
   </si>
   <si>
     <t>['Fanø', 'Kalundborg', 'Hedensted', 'Slagelse', 'Vesthimmerland', 'Herning', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
   </si>
   <si>
-    <t>['Fanø', 'Kalundborg']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Silkeborg', 'Vejen', 'Kalundborg', 'Skive']</t>
-  </si>
-  <si>
-    <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Greve', 'Herning', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Vesthimmerland']</t>
-  </si>
-  <si>
-    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Fanø', 'Hedensted', 'Slagelse', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
-    <t>['Region Sjælland']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning', 'Hedensted', 'Slagelse', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
-    <t>['Fanø', 'Kalundborg', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Region Nordjylland', 'Rødovre', 'Vejen', 'Silkeborg']</t>
-  </si>
-  <si>
-    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Vesthimmerland', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Rødovre', 'Vejen', 'Greve', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Fanø']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen', 'Herning']</t>
-  </si>
-  <si>
-    <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Herning', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
     <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
-    <t>['Herning']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Fredericia', 'Greve', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Rødovre', 'Vejen']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Fanø', 'Kalundborg']</t>
-  </si>
-  <si>
-    <t>['Herning', 'Ringkøbing-Skjern', 'Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Hedensted', 'Slagelse', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,22 +1458,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -992,22 +1481,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1015,22 +1504,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1038,22 +1527,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1061,22 +1550,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1084,22 +1573,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1107,22 +1596,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1130,22 +1619,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1153,22 +1642,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1176,22 +1665,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1199,22 +1688,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1222,22 +1711,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1245,22 +1734,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1268,22 +1757,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1291,22 +1780,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1314,22 +1803,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1337,22 +1826,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1360,22 +1849,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1383,22 +1872,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1406,22 +1895,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1429,22 +1918,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1452,22 +1941,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1475,22 +1964,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1498,22 +1987,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1521,22 +2010,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1544,22 +2033,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1567,22 +2056,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1590,22 +2079,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1613,22 +2102,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1636,22 +2125,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1659,22 +2148,3771 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
+      </c>
+      <c r="G52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" t="s">
+        <v>271</v>
+      </c>
+      <c r="F61" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>302</v>
+      </c>
+      <c r="G64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" t="s">
+        <v>301</v>
+      </c>
+      <c r="G65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>271</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" t="s">
+        <v>301</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>309</v>
+      </c>
+      <c r="G70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" t="s">
+        <v>301</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" t="s">
+        <v>312</v>
+      </c>
+      <c r="G74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F76" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
+        <v>279</v>
+      </c>
+      <c r="F77" t="s">
+        <v>309</v>
+      </c>
+      <c r="G77" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" t="s">
+        <v>301</v>
+      </c>
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" t="s">
+        <v>301</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" t="s">
+        <v>308</v>
+      </c>
+      <c r="G80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
+        <v>283</v>
+      </c>
+      <c r="F81" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>314</v>
+      </c>
+      <c r="G83" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" t="s">
+        <v>303</v>
+      </c>
+      <c r="G84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>310</v>
+      </c>
+      <c r="G85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>310</v>
+      </c>
+      <c r="G86" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87" t="s">
+        <v>312</v>
+      </c>
+      <c r="G87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" t="s">
+        <v>314</v>
+      </c>
+      <c r="G88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" t="s">
+        <v>311</v>
+      </c>
+      <c r="G89" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" t="s">
+        <v>281</v>
+      </c>
+      <c r="F90" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" t="s">
+        <v>285</v>
+      </c>
+      <c r="F91" t="s">
+        <v>315</v>
+      </c>
+      <c r="G91" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" t="s">
+        <v>286</v>
+      </c>
+      <c r="F93" t="s">
+        <v>316</v>
+      </c>
+      <c r="G93" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" t="s">
+        <v>316</v>
+      </c>
+      <c r="G94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" t="s">
+        <v>317</v>
+      </c>
+      <c r="G95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" t="s">
+        <v>284</v>
+      </c>
+      <c r="F96" t="s">
+        <v>314</v>
+      </c>
+      <c r="G96" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" t="s">
+        <v>284</v>
+      </c>
+      <c r="F97" t="s">
+        <v>314</v>
+      </c>
+      <c r="G97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" t="s">
+        <v>284</v>
+      </c>
+      <c r="F98" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" t="s">
+        <v>310</v>
+      </c>
+      <c r="G100" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" t="s">
+        <v>282</v>
+      </c>
+      <c r="F101" t="s">
+        <v>312</v>
+      </c>
+      <c r="G101" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" t="s">
+        <v>312</v>
+      </c>
+      <c r="G102" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" t="s">
+        <v>288</v>
+      </c>
+      <c r="F103" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" t="s">
+        <v>311</v>
+      </c>
+      <c r="G104" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" t="s">
+        <v>312</v>
+      </c>
+      <c r="G105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" t="s">
+        <v>282</v>
+      </c>
+      <c r="F106" t="s">
+        <v>312</v>
+      </c>
+      <c r="G106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" t="s">
+        <v>250</v>
+      </c>
+      <c r="E107" t="s">
+        <v>288</v>
+      </c>
+      <c r="F107" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" t="s">
+        <v>285</v>
+      </c>
+      <c r="F108" t="s">
+        <v>315</v>
+      </c>
+      <c r="G108" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" t="s">
+        <v>289</v>
+      </c>
+      <c r="F109" t="s">
+        <v>319</v>
+      </c>
+      <c r="G109" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" t="s">
+        <v>290</v>
+      </c>
+      <c r="F110" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" t="s">
+        <v>274</v>
+      </c>
+      <c r="F111" t="s">
+        <v>304</v>
+      </c>
+      <c r="G111" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" t="s">
+        <v>321</v>
+      </c>
+      <c r="G112" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
+        <v>250</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" t="s">
+        <v>320</v>
+      </c>
+      <c r="G113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" t="s">
+        <v>282</v>
+      </c>
+      <c r="F114" t="s">
+        <v>312</v>
+      </c>
+      <c r="G114" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" t="s">
+        <v>286</v>
+      </c>
+      <c r="F115" t="s">
+        <v>316</v>
+      </c>
+      <c r="G115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" t="s">
+        <v>286</v>
+      </c>
+      <c r="F116" t="s">
+        <v>316</v>
+      </c>
+      <c r="G116" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" t="s">
+        <v>283</v>
+      </c>
+      <c r="F117" t="s">
+        <v>313</v>
+      </c>
+      <c r="G117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" t="s">
+        <v>299</v>
+      </c>
+      <c r="G118" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" t="s">
+        <v>281</v>
+      </c>
+      <c r="F119" t="s">
+        <v>311</v>
+      </c>
+      <c r="G119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" t="s">
+        <v>311</v>
+      </c>
+      <c r="G120" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
+      <c r="E121" t="s">
+        <v>281</v>
+      </c>
+      <c r="F121" t="s">
+        <v>311</v>
+      </c>
+      <c r="G121" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" t="s">
+        <v>212</v>
+      </c>
+      <c r="D122" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122" t="s">
+        <v>274</v>
+      </c>
+      <c r="F122" t="s">
+        <v>304</v>
+      </c>
+      <c r="G122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" t="s">
+        <v>290</v>
+      </c>
+      <c r="F123" t="s">
+        <v>320</v>
+      </c>
+      <c r="G123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" t="s">
+        <v>250</v>
+      </c>
+      <c r="E124" t="s">
+        <v>282</v>
+      </c>
+      <c r="F124" t="s">
+        <v>312</v>
+      </c>
+      <c r="G124" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B125" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" t="s">
+        <v>250</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" t="s">
+        <v>309</v>
+      </c>
+      <c r="G125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126" t="s">
+        <v>309</v>
+      </c>
+      <c r="G126" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D127" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" t="s">
+        <v>290</v>
+      </c>
+      <c r="F127" t="s">
+        <v>320</v>
+      </c>
+      <c r="G127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" t="s">
+        <v>290</v>
+      </c>
+      <c r="F128" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" t="s">
+        <v>250</v>
+      </c>
+      <c r="E129" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" t="s">
+        <v>320</v>
+      </c>
+      <c r="G129" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" t="s">
+        <v>294</v>
+      </c>
+      <c r="G130" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" t="s">
+        <v>218</v>
+      </c>
+      <c r="D131" t="s">
+        <v>250</v>
+      </c>
+      <c r="E131" t="s">
+        <v>280</v>
+      </c>
+      <c r="F131" t="s">
+        <v>310</v>
+      </c>
+      <c r="G131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" t="s">
+        <v>250</v>
+      </c>
+      <c r="E132" t="s">
+        <v>282</v>
+      </c>
+      <c r="F132" t="s">
+        <v>312</v>
+      </c>
+      <c r="G132" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" t="s">
+        <v>318</v>
+      </c>
+      <c r="G133" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134" t="s">
+        <v>285</v>
+      </c>
+      <c r="F134" t="s">
+        <v>315</v>
+      </c>
+      <c r="G134" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D135" t="s">
+        <v>250</v>
+      </c>
+      <c r="E135" t="s">
+        <v>280</v>
+      </c>
+      <c r="F135" t="s">
+        <v>310</v>
+      </c>
+      <c r="G135" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>226</v>
+      </c>
+      <c r="C136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" t="s">
+        <v>250</v>
+      </c>
+      <c r="E136" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136" t="s">
+        <v>318</v>
+      </c>
+      <c r="G136" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" t="s">
+        <v>288</v>
+      </c>
+      <c r="F137" t="s">
+        <v>318</v>
+      </c>
+      <c r="G137" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" t="s">
+        <v>261</v>
+      </c>
+      <c r="E138" t="s">
+        <v>292</v>
+      </c>
+      <c r="F138" t="s">
+        <v>322</v>
+      </c>
+      <c r="G138" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" t="s">
+        <v>261</v>
+      </c>
+      <c r="E139" t="s">
+        <v>291</v>
+      </c>
+      <c r="F139" t="s">
+        <v>321</v>
+      </c>
+      <c r="G139" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" t="s">
+        <v>280</v>
+      </c>
+      <c r="F140" t="s">
+        <v>310</v>
+      </c>
+      <c r="G140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" t="s">
+        <v>254</v>
+      </c>
+      <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
+        <v>304</v>
+      </c>
+      <c r="G141" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>212</v>
+      </c>
+      <c r="D142" t="s">
+        <v>254</v>
+      </c>
+      <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
+        <v>304</v>
+      </c>
+      <c r="G142" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" t="s">
+        <v>241</v>
+      </c>
+      <c r="D143" t="s">
+        <v>250</v>
+      </c>
+      <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
+        <v>312</v>
+      </c>
+      <c r="G143" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" t="s">
+        <v>241</v>
+      </c>
+      <c r="D144" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
+        <v>312</v>
+      </c>
+      <c r="G144" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" t="s">
+        <v>241</v>
+      </c>
+      <c r="D145" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
+        <v>312</v>
+      </c>
+      <c r="G145" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" t="s">
+        <v>243</v>
+      </c>
+      <c r="D146" t="s">
+        <v>250</v>
+      </c>
+      <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
+        <v>320</v>
+      </c>
+      <c r="G146" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" t="s">
+        <v>218</v>
+      </c>
+      <c r="D147" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
+        <v>310</v>
+      </c>
+      <c r="G147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148" t="s">
+        <v>273</v>
+      </c>
+      <c r="F148" t="s">
+        <v>303</v>
+      </c>
+      <c r="G148" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" t="s">
+        <v>253</v>
+      </c>
+      <c r="E149" t="s">
+        <v>273</v>
+      </c>
+      <c r="F149" t="s">
+        <v>303</v>
+      </c>
+      <c r="G149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" t="s">
+        <v>273</v>
+      </c>
+      <c r="F150" t="s">
+        <v>303</v>
+      </c>
+      <c r="G150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" t="s">
+        <v>259</v>
+      </c>
+      <c r="E151" t="s">
+        <v>284</v>
+      </c>
+      <c r="F151" t="s">
+        <v>314</v>
+      </c>
+      <c r="G151" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
+        <v>211</v>
+      </c>
+      <c r="C152" t="s">
+        <v>211</v>
+      </c>
+      <c r="D152" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" t="s">
+        <v>303</v>
+      </c>
+      <c r="G152" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
+        <v>218</v>
+      </c>
+      <c r="D153" t="s">
+        <v>250</v>
+      </c>
+      <c r="E153" t="s">
+        <v>280</v>
+      </c>
+      <c r="F153" t="s">
+        <v>310</v>
+      </c>
+      <c r="G153" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154" t="s">
+        <v>225</v>
+      </c>
+      <c r="D154" t="s">
+        <v>260</v>
+      </c>
+      <c r="E154" t="s">
+        <v>287</v>
+      </c>
+      <c r="F154" t="s">
+        <v>317</v>
+      </c>
+      <c r="G154" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
         <v>160</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B155" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" t="s">
+        <v>254</v>
+      </c>
+      <c r="E155" t="s">
+        <v>281</v>
+      </c>
+      <c r="F155" t="s">
+        <v>311</v>
+      </c>
+      <c r="G155" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>226</v>
+      </c>
+      <c r="C156" t="s">
+        <v>226</v>
+      </c>
+      <c r="D156" t="s">
+        <v>250</v>
+      </c>
+      <c r="E156" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" t="s">
+        <v>318</v>
+      </c>
+      <c r="G156" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>230</v>
+      </c>
+      <c r="C157" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" t="s">
+        <v>261</v>
+      </c>
+      <c r="E157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
+        <v>322</v>
+      </c>
+      <c r="G157" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
+        <v>231</v>
+      </c>
+      <c r="C158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" t="s">
+        <v>262</v>
+      </c>
+      <c r="E158" t="s">
+        <v>293</v>
+      </c>
+      <c r="F158" t="s">
+        <v>323</v>
+      </c>
+      <c r="G158" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" t="s">
+        <v>259</v>
+      </c>
+      <c r="E159" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159" t="s">
+        <v>314</v>
+      </c>
+      <c r="G159" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>222</v>
+      </c>
+      <c r="C160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" t="s">
+        <v>259</v>
+      </c>
+      <c r="E160" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" t="s">
+        <v>314</v>
+      </c>
+      <c r="G160" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
+        <v>241</v>
+      </c>
+      <c r="D161" t="s">
+        <v>250</v>
+      </c>
+      <c r="E161" t="s">
+        <v>282</v>
+      </c>
+      <c r="F161" t="s">
+        <v>312</v>
+      </c>
+      <c r="G161" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" t="s">
+        <v>250</v>
+      </c>
+      <c r="E162" t="s">
+        <v>282</v>
+      </c>
+      <c r="F162" t="s">
+        <v>312</v>
+      </c>
+      <c r="G162" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" t="s">
+        <v>223</v>
+      </c>
+      <c r="D163" t="s">
+        <v>250</v>
+      </c>
+      <c r="E163" t="s">
+        <v>285</v>
+      </c>
+      <c r="F163" t="s">
+        <v>315</v>
+      </c>
+      <c r="G163" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" t="s">
+        <v>250</v>
+      </c>
+      <c r="E164" t="s">
+        <v>269</v>
+      </c>
+      <c r="F164" t="s">
+        <v>299</v>
+      </c>
+      <c r="G164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" t="s">
+        <v>211</v>
+      </c>
+      <c r="D165" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165" t="s">
+        <v>273</v>
+      </c>
+      <c r="F165" t="s">
+        <v>303</v>
+      </c>
+      <c r="G165" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>222</v>
+      </c>
+      <c r="C166" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" t="s">
+        <v>259</v>
+      </c>
+      <c r="E166" t="s">
+        <v>284</v>
+      </c>
+      <c r="F166" t="s">
+        <v>314</v>
+      </c>
+      <c r="G166" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C167" t="s">
+        <v>224</v>
+      </c>
+      <c r="D167" t="s">
+        <v>253</v>
+      </c>
+      <c r="E167" t="s">
+        <v>286</v>
+      </c>
+      <c r="F167" t="s">
+        <v>316</v>
+      </c>
+      <c r="G167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" t="s">
+        <v>223</v>
+      </c>
+      <c r="D168" t="s">
+        <v>250</v>
+      </c>
+      <c r="E168" t="s">
+        <v>285</v>
+      </c>
+      <c r="F168" t="s">
+        <v>315</v>
+      </c>
+      <c r="G168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+      <c r="C169" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" t="s">
+        <v>247</v>
+      </c>
+      <c r="E169" t="s">
+        <v>266</v>
+      </c>
+      <c r="F169" t="s">
+        <v>296</v>
+      </c>
+      <c r="G169" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" t="s">
+        <v>217</v>
+      </c>
+      <c r="D170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E170" t="s">
+        <v>279</v>
+      </c>
+      <c r="F170" t="s">
+        <v>309</v>
+      </c>
+      <c r="G170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="s">
+        <v>220</v>
+      </c>
+      <c r="C171" t="s">
+        <v>241</v>
+      </c>
+      <c r="D171" t="s">
+        <v>250</v>
+      </c>
+      <c r="E171" t="s">
+        <v>282</v>
+      </c>
+      <c r="F171" t="s">
+        <v>312</v>
+      </c>
+      <c r="G171" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>228</v>
+      </c>
+      <c r="C172" t="s">
+        <v>243</v>
+      </c>
+      <c r="D172" t="s">
+        <v>250</v>
+      </c>
+      <c r="E172" t="s">
+        <v>290</v>
+      </c>
+      <c r="F172" t="s">
+        <v>320</v>
+      </c>
+      <c r="G172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
+        <v>221</v>
+      </c>
+      <c r="C173" t="s">
+        <v>242</v>
+      </c>
+      <c r="D173" t="s">
+        <v>258</v>
+      </c>
+      <c r="E173" t="s">
+        <v>283</v>
+      </c>
+      <c r="F173" t="s">
+        <v>313</v>
+      </c>
+      <c r="G173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s">
+        <v>228</v>
+      </c>
+      <c r="C174" t="s">
+        <v>243</v>
+      </c>
+      <c r="D174" t="s">
+        <v>250</v>
+      </c>
+      <c r="E174" t="s">
+        <v>290</v>
+      </c>
+      <c r="F174" t="s">
+        <v>320</v>
+      </c>
+      <c r="G174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" t="s">
+        <v>217</v>
+      </c>
+      <c r="D175" t="s">
+        <v>250</v>
+      </c>
+      <c r="E175" t="s">
+        <v>279</v>
+      </c>
+      <c r="F175" t="s">
+        <v>309</v>
+      </c>
+      <c r="G175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s">
+        <v>228</v>
+      </c>
+      <c r="C176" t="s">
+        <v>243</v>
+      </c>
+      <c r="D176" t="s">
+        <v>250</v>
+      </c>
+      <c r="E176" t="s">
+        <v>290</v>
+      </c>
+      <c r="F176" t="s">
+        <v>320</v>
+      </c>
+      <c r="G176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>228</v>
+      </c>
+      <c r="C177" t="s">
+        <v>243</v>
+      </c>
+      <c r="D177" t="s">
+        <v>250</v>
+      </c>
+      <c r="E177" t="s">
+        <v>290</v>
+      </c>
+      <c r="F177" t="s">
+        <v>320</v>
+      </c>
+      <c r="G177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>228</v>
+      </c>
+      <c r="C178" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" t="s">
+        <v>250</v>
+      </c>
+      <c r="E178" t="s">
+        <v>290</v>
+      </c>
+      <c r="F178" t="s">
+        <v>320</v>
+      </c>
+      <c r="G178" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>228</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179" t="s">
+        <v>250</v>
+      </c>
+      <c r="E179" t="s">
+        <v>290</v>
+      </c>
+      <c r="F179" t="s">
+        <v>320</v>
+      </c>
+      <c r="G179" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>218</v>
+      </c>
+      <c r="C180" t="s">
+        <v>218</v>
+      </c>
+      <c r="D180" t="s">
+        <v>250</v>
+      </c>
+      <c r="E180" t="s">
+        <v>280</v>
+      </c>
+      <c r="F180" t="s">
+        <v>310</v>
+      </c>
+      <c r="G180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="s">
+        <v>226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>226</v>
+      </c>
+      <c r="D181" t="s">
+        <v>250</v>
+      </c>
+      <c r="E181" t="s">
+        <v>288</v>
+      </c>
+      <c r="F181" t="s">
+        <v>318</v>
+      </c>
+      <c r="G181" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
         <v>187</v>
+      </c>
+      <c r="B182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" t="s">
+        <v>250</v>
+      </c>
+      <c r="E182" t="s">
+        <v>290</v>
+      </c>
+      <c r="F182" t="s">
+        <v>320</v>
+      </c>
+      <c r="G182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>228</v>
+      </c>
+      <c r="C183" t="s">
+        <v>243</v>
+      </c>
+      <c r="D183" t="s">
+        <v>250</v>
+      </c>
+      <c r="E183" t="s">
+        <v>290</v>
+      </c>
+      <c r="F183" t="s">
+        <v>320</v>
+      </c>
+      <c r="G183" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s">
+        <v>230</v>
+      </c>
+      <c r="C184" t="s">
+        <v>230</v>
+      </c>
+      <c r="D184" t="s">
+        <v>261</v>
+      </c>
+      <c r="E184" t="s">
+        <v>292</v>
+      </c>
+      <c r="F184" t="s">
+        <v>322</v>
+      </c>
+      <c r="G184" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" t="s">
+        <v>254</v>
+      </c>
+      <c r="E185" t="s">
+        <v>274</v>
+      </c>
+      <c r="F185" t="s">
+        <v>304</v>
+      </c>
+      <c r="G185" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" t="s">
+        <v>233</v>
+      </c>
+      <c r="D186" t="s">
+        <v>247</v>
+      </c>
+      <c r="E186" t="s">
+        <v>266</v>
+      </c>
+      <c r="F186" t="s">
+        <v>296</v>
+      </c>
+      <c r="G186" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s">
+        <v>223</v>
+      </c>
+      <c r="C187" t="s">
+        <v>223</v>
+      </c>
+      <c r="D187" t="s">
+        <v>250</v>
+      </c>
+      <c r="E187" t="s">
+        <v>285</v>
+      </c>
+      <c r="F187" t="s">
+        <v>315</v>
+      </c>
+      <c r="G187" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188" t="s">
+        <v>250</v>
+      </c>
+      <c r="E188" t="s">
+        <v>285</v>
+      </c>
+      <c r="F188" t="s">
+        <v>315</v>
+      </c>
+      <c r="G188" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>228</v>
+      </c>
+      <c r="C189" t="s">
+        <v>243</v>
+      </c>
+      <c r="D189" t="s">
+        <v>250</v>
+      </c>
+      <c r="E189" t="s">
+        <v>290</v>
+      </c>
+      <c r="F189" t="s">
+        <v>320</v>
+      </c>
+      <c r="G189" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s">
+        <v>226</v>
+      </c>
+      <c r="C190" t="s">
+        <v>226</v>
+      </c>
+      <c r="D190" t="s">
+        <v>250</v>
+      </c>
+      <c r="E190" t="s">
+        <v>288</v>
+      </c>
+      <c r="F190" t="s">
+        <v>318</v>
+      </c>
+      <c r="G190" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>226</v>
+      </c>
+      <c r="C191" t="s">
+        <v>226</v>
+      </c>
+      <c r="D191" t="s">
+        <v>250</v>
+      </c>
+      <c r="E191" t="s">
+        <v>288</v>
+      </c>
+      <c r="F191" t="s">
+        <v>318</v>
+      </c>
+      <c r="G191" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>228</v>
+      </c>
+      <c r="C192" t="s">
+        <v>243</v>
+      </c>
+      <c r="D192" t="s">
+        <v>250</v>
+      </c>
+      <c r="E192" t="s">
+        <v>290</v>
+      </c>
+      <c r="F192" t="s">
+        <v>320</v>
+      </c>
+      <c r="G192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C193" t="s">
+        <v>212</v>
+      </c>
+      <c r="D193" t="s">
+        <v>254</v>
+      </c>
+      <c r="E193" t="s">
+        <v>274</v>
+      </c>
+      <c r="F193" t="s">
+        <v>304</v>
+      </c>
+      <c r="G193" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>228</v>
+      </c>
+      <c r="C194" t="s">
+        <v>243</v>
+      </c>
+      <c r="D194" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194" t="s">
+        <v>290</v>
+      </c>
+      <c r="F194" t="s">
+        <v>320</v>
+      </c>
+      <c r="G194" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>226</v>
+      </c>
+      <c r="C195" t="s">
+        <v>226</v>
+      </c>
+      <c r="D195" t="s">
+        <v>250</v>
+      </c>
+      <c r="E195" t="s">
+        <v>288</v>
+      </c>
+      <c r="F195" t="s">
+        <v>318</v>
+      </c>
+      <c r="G195" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
